--- a/public/data/question_template_fr Wing_photo inserted_3.xlsx
+++ b/public/data/question_template_fr Wing_photo inserted_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seantsang/Documents/working/slf2024-game/public/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\otwor\Documents\work\slf2024-game\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AFEBBA6-5C4D-F943-A217-3ABFC813A61A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C230CD9-A602-4075-9192-EE801A69CFF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="-6440" windowWidth="38400" windowHeight="20560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Modern" sheetId="2" r:id="rId1"/>
@@ -75,12 +75,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>廖萬石堂位於上水門口村，由廖族於1751年建成，是香港最具規模的祠堂之一。「萬石」之名與宋朝（960年 – 1279年）廖族遠祖廖剛及其4名兒子有關。相傳他們5人皆為高官，年享俸祿合共萬石，後人為紀念他們，遂將祖祠命名為「廖萬石堂」。
-廖萬石堂屬三進兩院式建築，建築裝飾華麗，灰塑、木刻、壁畫、泥塑等比目皆是，題材多為傳統吉祥圖案。
-廖萬石堂於1985年列為古蹟，建築物曾多次進行重修，最近一次於2016年完成。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>西營盤社區綜合大樓</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -220,13 +214,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>環球貿易廣場位於香港西九龍柯士甸道西1號，共118層，樓高484米，全香港最高的摩天大樓，世界排名12。
-國際金融中心二期位於香港島中環金融街8號，是港鐵機場快綫及東涌綫香港站上蓋，樓高415米，是目前香港第二高的摩天大樓，世界排名35。
-中環廣場位於灣仔北港灣道18號，於1992年建成時曾是亞洲及香港最高的建築物，樓高374米，目前為全香港第三高的摩天大樓。
-中環中心位於中環皇后大道中99號，樓高346米，樓高80層，是目前香港第五高的摩天大樓。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>摩天大樓</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -506,11 +493,6 @@
   </si>
   <si>
     <t>天星碼頭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>來往香港和九龍的渡輪服務可追溯至1880年成立的「九龍渡海小輪公司」。1898年，天星小輪有限公司成立，收購了所有渡輪，並以其轄下船隻的名稱皆有「星」字而為公司命名。
-在過往百多年的歲月裏，綠白兩色的天星渡輪每天穿梭港島及九龍兩岸。乘客可從尖沙咀的天星碼頭(梳士巴利道尖沙咀渡輪碼頭)或中環碼頭（中環7號碼頭）、灣仔碼頭登船（會議道灣仔渡輪碼頭），沿途飽覽維港兩岸景色，一嚐這譽為「人生50個必到景點」的滋味。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -595,7 +577,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="1"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -637,61 +619,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>前九廣鐵路鐘樓以紅磚及花崗岩建造，具愛德華時代古典復興建築風格，樓高44米，樓頂裝有7米高的避雷針。鐘樓上部為八角形，有圓頂鐘塔，白色的古典裝飾如卷形扶壁、柱子及簷飾等，與紅磚形成強烈對比。
-隨着九廣鐵路總站於1975年遷往紅磡，尖沙咀的總站大樓於1978年拆卸，原址保存的鐘樓，成為見證香港鐵路早期歷史的重要標誌。
-前九廣鐵路鐘樓於1990年列為古蹟。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>衙門為九龍寨城僅存的古建築物，於1847年建成，是一所三進四廂的南方建築物，牆身及柱礎用青磚及麻石建造，而屋頂樑架則為傳統木材結構，上鋪素燒的筒瓦和布瓦。自1899年駐軍撤離寨城後，衙門曾被用作多種慈善用途，其中包括用作安立間教會窮人院（廣蔭院）、老人院、寡婦和孤兒收容所、義學、診所及在最後於寨城（除衙門）清拆前作為老人中心。整個衙門採用簡單樸素的裝飾，經修葺後回復舊觀。衙門門前上方刻有【ALMSHOUSE】字樣。【ALMSHOUSE】又稱【廣蔭院】，是收容及照顧貧苦無依老人的地方。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>雷生春是一幢四層高的唐樓，位處九龍旺角一幅三角形土地。雷生春建於1931年，由九龍巴士（一九三三）有限公司其中一名創辦人雷亮（1863年至1944年）擁有。雷氏家族在地舖經營藥店，並居於樓上各層。在雷亮於1944年辭世後幾年，藥店結業。2003年，雷氏家族將建築物贈予香港政府作保育之用，這是首次業主將歷史建築捐贈給政府。
-雷生春由建築師W. H. Bourne設計。建築物為新古典主義風格，帶裝飾藝術元素，有明顯的水平線條和大量古典元素，正立面採用弧形設計。
-在第一期活化歷史建築伙伴計劃下，香港浸會大學於2012年將雷生春活化為中醫藥保健中心，並一直營運。雷生春除了重新用作醫療相關設施以發揮原有功能外，其原有建築面貌及構件，包括花崗石柱、水磨石外牆、地磚和樓梯等均妥善保留。雷生春見證了一個備受尊重的家族的歷史，包括他們經營的藥店在第二次世界大戰前後的經濟活動。
-雷生春於2022年列為古蹟。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>香港天文台建於1883年，坐落於九龍一小山丘上，並於1912年正式命名為皇家香港天文台。天文台具維多利亞殖民建築風格，樓高兩層，呈長方形，外牆經過粉飾，拱形窗和長廊別具特色。隨著附近之新大樓落成，天文台各技術及職務部門已遷往新廈。不過，舊大樓仍為台長辦公室及行政中心。隨著1997年7月1日香港主權回歸中國，復稱「香港天文台」。
-香港天文台於1984年列為古蹟。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>雷生春是一幢四層高的唐樓，位處九龍旺角一幅三角形土地。請問其原擁有人是以下哪一間香港公司的其中一位創辦人？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>前水警總部建成於1884年，為現存最古老的政府建築之一；整組建築群包括主樓、馬廄及報時塔（俗稱圓屋）。除日佔期間（1941至1945年）曾用作日本海軍基地外，至1996年為止，一直為水警所用。主樓本為一所兩層高建築，後於1920年代加建一層，主樓東南及西南兩翼為已婚職員宿舍。日佔期間於水警總部前草地下建有大規模地下通道。二次大戰後，為安全起見，封閉地下通道，及重鋪草地。報時塔可謂整座水警總部最具特色之建築，為海港船隻報時。其報時功能於1907年大包米的訊號塔落成啟用後而消失。
-2003年，政府推出發展前水警總部文物旅遊計劃，邀請私人發展商以招標形式去保存、修復和發展該歷史地段。此計劃於2009年完成，前水警總部建築群於修復及活化後名為「1881」。
-前水警總部於1994年列為古蹟。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>西營盤社區綜合大樓前身是國家醫院外籍護士宿舍，是早期香港巴洛克建築的代表。1939年，為紓緩鄰近的精神病院的擠迫情況，大樓改建為精神病院女病房，因此大樓同樣被稱為「精神病院」。1961年，隨著青山醫院於同年正式啟用，大樓改為日間精神科門診部。1971至1998年間大樓一度空置，1998年重建為西營盤社區綜合大樓，保留了極為罕有的花崗石立面。由於大樓在1939至1961年曾用作精神病院的新增病房，本地居民稱之為「舊精神病院」。此外，大樓又稱為「高街鬼屋」。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">位於中環炮台里的前法國外方傳道會大樓由法國外方傳道會於1917年興建，用作教會在香港的司帳處。1941年香港淪陷前，大樓曾一度被政府徵用。第二次世界大戰結束後，大樓旋即被用作臨時香港政府總部。法國傳道會與香港政府在1952年簽訂該大樓的買賣合約。自1953年起，大樓先後用作教育司署的辦事處、維多利亞地方法院、最高法院和政府新聞處的辦事處。由1997至2015年，大樓供香港終審法院使用。
-大樓以花崗石和紅磚建成，屬愛德華時期的新古典風格。大樓樓高三層，並設有地下室，西北隅建有一座圓頂小教堂
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>甘棠第於1914年興建，以第一任屋主何甘棠的名字命名。政府於2004年購得甘棠第，並將之改建為孫中山紀念館。該紀念館自2006年12月起開放給公眾參觀。
-甘棠第屬綜合古典風格的建築，這種風格在英皇愛德華時期的香港甚為流行。建築物的牆身由紅磚築砌，門窗四周飾有花崗石，露台建有精巧華麗的鐵製欄杆。甘棠第是本港最先以鋼架興建，並鋪設入牆電線的建築物之一。
-建築物內部富麗堂皇，糅合了巴洛克及洛可可風格的建築特色。地庫至二樓以寬闊華麗的樓梯連接，梯上設有精緻的扶欄。主要房間的天花均飾有以金箔點綴的灰塑鑲板，而主樓梯及其他當眼位置亦裝設了色彩斑斕的玻璃窗，並以當時流行的新藝術風格圖案作為裝飾。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>美利樓原位於中環現時中銀大廈的位置，於1846年建成，大樓的設計饒富維多利亞時期的建築風格，曾先後用作駐港英軍軍營和政府部門的辦事處。及後美利樓的結構出現問題，加上社會對中區土地需求殷切，大樓於1982年拆卸，並將拆卸下來的3,000多件組件編上號碼，在1998年移遷至赤柱廣場組合重建。雖然因拆卸時遺失了部分組件如原來用作通風的煙囪，並以其他類似的建築物的組件代替，美利樓仍能大致保留原來的面貌，是赤柱的地標之一。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前中區警署是香港現存少數建於十九世紀的警署建築之一，在二戰前用作警察總部，負責香港的執法工作。該處在戰後曾用作港島總區總部及中區警署，於2004年12月正式關閉，以進行活化再利用。前中區警署、中央裁判司署及域多利監獄於2018年活化為「大館─古蹟及藝術館」，並對公眾開放。
-在該建築群中，最突出的建築物為營房大樓（1864年）和警察總部大樓（1919年）。營房大樓曾為200名單身警員及單身和已婚警長提供住宿，其設計以英國軍營為藍本，正面面向操場，採用新古典主義建築風格。大樓於1905年加建一層。室內的樓梯和地板以厚重的花崗石建成，別具特色。遊廊和高天花的通風柵格是因應香港的亞熱帶氣候而採用的建築設計。
-前中區警署、中央裁判司署和域多利監獄組成了一組標誌著香港法律及紀律的歷史建築群。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -701,7 +641,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="1"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -711,7 +651,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -730,7 +670,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -740,7 +680,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -750,718 +690,832 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>大夫第建於清朝同治四年（1865年），是文頌鑾的府第。據文氏族譜所載，文氏的先祖源自四川，南宋（1127至1279年）時期遷徙至江西和廣東，十五世紀開始定居元朗新田。文頌鑾為文氏二十一世祖，獲賜封大夫銜。
-大夫第是傳統華南士紳階級府第建築的典範，也是本港最華麗的歷史建築物之一。大夫第主建築為兩進三開間布局，天井兩旁為廂房。主建築東西兩側各有面闊一開間的附屬建築物，東翼設有花廳和內院，西翼建築則以長廊相隔，設有廚房、偏廳和廁所。
+    <t>文武廟為廟宇組群，位於上環荷李活道，文武廟主要供奉文昌及武帝，請問武帝即是哪一位歷史人物？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>訊號塔坐落於大包米訊號山花園，由香港天文台於1907年興建，請問它本來是以下哪一種用途？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位於油麻地的天后古廟及其鄰接建築物兼具祭祀、仲裁及教學等多種功能，見證油麻地地貌及文化的變遷，請問建築群包括天后廟、公所、福德祠及以下哪一種建築？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>東涌炮台以前稱為東涌所城，為保護國家安全而設。請問東涌炮台在甚麼朝代建成呢？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1983年新大埔墟火車站建成，代替原來的車站。舊大埔墟火車站經全面修復後，已改作其他用途。請問是以下哪一項用途呢？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三棟屋是位於荃灣的圍村，請問當地原居民是來自甚麼族群？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛堂門天后古廟（「古廟」）又稱「大廟」，位於佛堂門北岸，是本港歷史最悠久和規模最大的天后廟之一。請問此廟始建於甚麼時期？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大夫第位於元朗新田永平村建於1865年。請問名稱中的「大夫」是以下哪一個意思？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廖萬石堂位於上水門口村，是香港最具規模的祠堂之一。請問名稱中的「萬石」是以下哪一個意思？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美利樓位於赤柱佳美道，原為駐港英軍軍營和政府部門的辦事處，後來得以保育，請問它用了以下哪一種保育方式？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位於中環衛城道的甘棠第於1914年興建，以下哪一個是甘棠第現在的用途？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位於中環炮台里的前法國外方傳道會大樓於1917年興建，以下哪一個是它的著名舊用途？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>於2001年，香港政府決定保育西營盤社區綜合大樓請問它用了以下哪一種保育方式？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作為香港一級歷史建築的灣仔藍屋，其實原本並不是藍色的。在1990年代前，灣仔藍屋原為「灰屋」，請問為甚麼後來會變成藍色呢？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香港天文台位於尖沙咀，隨著附近之新大樓落成，天文台各部門已遷往新廈。不過，舊大樓仍保留一個用途，請問是以下哪一種用途？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2003年，政府推出發展前水警總部文物旅遊計劃，前水警總部建築群經私人發展商修復及活化後命名為「1881」。請問其落成年份為何年？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>district</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>question</t>
+  </si>
+  <si>
+    <t>answer</t>
+  </si>
+  <si>
+    <t>knowledge</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>sourceUrl</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>國際金融中心二期</t>
+  </si>
+  <si>
+    <t>中環中心</t>
+  </si>
+  <si>
+    <t>環球貿易廣場</t>
+  </si>
+  <si>
+    <t>中環廣場</t>
+  </si>
+  <si>
+    <t>灣仔區</t>
+  </si>
+  <si>
+    <t>中西區</t>
+  </si>
+  <si>
+    <t>油尖旺區</t>
+  </si>
+  <si>
+    <t>「青」：青龍頭；「馬」：馬鞍山</t>
+  </si>
+  <si>
+    <t>「青」：青衣；「馬」：馬灣</t>
+  </si>
+  <si>
+    <t>「青」：青龍頭；「馬」：馬灣</t>
+  </si>
+  <si>
+    <t>「青」：青衣；「馬」：馬鞍山</t>
+  </si>
+  <si>
+    <t>舊機場難以擴建</t>
+  </si>
+  <si>
+    <t>舊機場帶來噪音污染</t>
+  </si>
+  <si>
+    <t>新機場較為安全</t>
+  </si>
+  <si>
+    <t>新機場的建築成本很低</t>
+  </si>
+  <si>
+    <t>第一</t>
+  </si>
+  <si>
+    <t>第二</t>
+  </si>
+  <si>
+    <t>第三</t>
+  </si>
+  <si>
+    <t>第四</t>
+  </si>
+  <si>
+    <t>格仔餅</t>
+  </si>
+  <si>
+    <t>菠蘿包</t>
+  </si>
+  <si>
+    <t>蛋撻</t>
+  </si>
+  <si>
+    <t>旺角</t>
+  </si>
+  <si>
+    <t>銅鑼灣</t>
+  </si>
+  <si>
+    <t>灣仔</t>
+  </si>
+  <si>
+    <t>尖沙咀</t>
+  </si>
+  <si>
+    <t>元代</t>
+  </si>
+  <si>
+    <t>明代</t>
+  </si>
+  <si>
+    <t>清代</t>
+  </si>
+  <si>
+    <t>現代</t>
+  </si>
+  <si>
+    <t>香港文化中心</t>
+  </si>
+  <si>
+    <t>香港特別行政區政府總部</t>
+  </si>
+  <si>
+    <t>香港故宮文化博物館</t>
+  </si>
+  <si>
+    <t>香港會議展覽中心</t>
+  </si>
+  <si>
+    <t>港鐵九龍綫</t>
+  </si>
+  <si>
+    <t>九廣鐵路</t>
+  </si>
+  <si>
+    <t>機埸快綫</t>
+  </si>
+  <si>
+    <t>珠：珠海；澳：澳頭</t>
+  </si>
+  <si>
+    <t>珠：珠海；澳：澳門</t>
+  </si>
+  <si>
+    <t>道教</t>
+  </si>
+  <si>
+    <t>佛教</t>
+  </si>
+  <si>
+    <t>儒教</t>
+  </si>
+  <si>
+    <t>基督教</t>
+  </si>
+  <si>
+    <t>三教同尊</t>
+  </si>
+  <si>
+    <t>香港藝術館</t>
+  </si>
+  <si>
+    <t>香港歷史博物館</t>
+  </si>
+  <si>
+    <t>金鐘</t>
+  </si>
+  <si>
+    <t>中環</t>
+  </si>
+  <si>
+    <t>北角</t>
+  </si>
+  <si>
+    <t>1952年</t>
+  </si>
+  <si>
+    <t>1962年</t>
+  </si>
+  <si>
+    <t>古代繪畫及書法</t>
+  </si>
+  <si>
+    <t>香港島</t>
+  </si>
+  <si>
+    <t>九龍</t>
+  </si>
+  <si>
+    <t>新界</t>
+  </si>
+  <si>
+    <t>觀塘</t>
+  </si>
+  <si>
+    <t>九龍城</t>
+  </si>
+  <si>
+    <t>紅磡</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 音樂劇</t>
+  </si>
+  <si>
+    <t>中國戲曲</t>
+  </si>
+  <si>
+    <t>舞蹈</t>
+  </si>
+  <si>
+    <t>海事處總部</t>
+  </si>
+  <si>
+    <t>水警總部</t>
+  </si>
+  <si>
+    <t>教會</t>
+  </si>
+  <si>
+    <t>鐵路總站</t>
+  </si>
+  <si>
+    <t>邀山樓</t>
+  </si>
+  <si>
+    <t>廣蔭庭</t>
+  </si>
+  <si>
+    <t>衙門</t>
+  </si>
+  <si>
+    <t>屈臣氏藥房</t>
+  </si>
+  <si>
+    <t>九龍巴士</t>
+  </si>
+  <si>
+    <t>九龍倉庫</t>
+  </si>
+  <si>
+    <t>中華電力</t>
+  </si>
+  <si>
+    <t>深空觀測中心</t>
+  </si>
+  <si>
+    <t>颱風預報及雨量統計中心</t>
+  </si>
+  <si>
+    <t>政府翻新時物料庫只剩下水務署常用的藍色油漆</t>
+  </si>
+  <si>
+    <t>新業主希望營造地中海風情</t>
+  </si>
+  <si>
+    <t>藍色象徵水，有防火的寓意</t>
+  </si>
+  <si>
+    <t>藍色有助降溫</t>
+  </si>
+  <si>
+    <t>前中區警署</t>
+  </si>
+  <si>
+    <t>前中央裁判司署</t>
+  </si>
+  <si>
+    <t>前域多利監獄</t>
+  </si>
+  <si>
+    <t>前終審法院大樓</t>
+  </si>
+  <si>
+    <t>完整保存</t>
+  </si>
+  <si>
+    <t>選址重建</t>
+  </si>
+  <si>
+    <t>活化</t>
+  </si>
+  <si>
+    <t>保留部分建築</t>
+  </si>
+  <si>
+    <t>前商人會所</t>
+  </si>
+  <si>
+    <t>前終審法院</t>
+  </si>
+  <si>
+    <t>前軍營</t>
+  </si>
+  <si>
+    <t>茶具博物館</t>
+  </si>
+  <si>
+    <t>孫中山紀念館</t>
+  </si>
+  <si>
+    <t>餐廳</t>
+  </si>
+  <si>
+    <t>建築時用了萬多塊大石</t>
+  </si>
+  <si>
+    <t>與祖先為高官有關</t>
+  </si>
+  <si>
+    <t>取其平穩之意，希望生活平安</t>
+  </si>
+  <si>
+    <t>意指船底用作平衡船隻的石頭，紀念廖氏由漁業發跡</t>
+  </si>
+  <si>
+    <t>代表居住者的社會地位</t>
+  </si>
+  <si>
+    <t>代表居住者的職業為醫生，而醫生古稱大夫</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 「大夫」為居住者的名稱</t>
+  </si>
+  <si>
+    <t>宋</t>
+  </si>
+  <si>
+    <t>元</t>
+  </si>
+  <si>
+    <t>明</t>
+  </si>
+  <si>
+    <t>清</t>
+  </si>
+  <si>
+    <t>鶴佬人</t>
+  </si>
+  <si>
+    <t>蜑家人</t>
+  </si>
+  <si>
+    <t>客家人</t>
+  </si>
+  <si>
+    <t>博物館</t>
+  </si>
+  <si>
+    <t>商店</t>
+  </si>
+  <si>
+    <t>宋朝</t>
+  </si>
+  <si>
+    <t>元朝</t>
+  </si>
+  <si>
+    <t>明朝</t>
+  </si>
+  <si>
+    <t>清朝</t>
+  </si>
+  <si>
+    <t>戲院</t>
+  </si>
+  <si>
+    <t>書院</t>
+  </si>
+  <si>
+    <t>醫院</t>
+  </si>
+  <si>
+    <t>花園</t>
+  </si>
+  <si>
+    <t>糧倉</t>
+  </si>
+  <si>
+    <t>觀測氣象</t>
+  </si>
+  <si>
+    <t>報時</t>
+  </si>
+  <si>
+    <t>觀星</t>
+  </si>
+  <si>
+    <t>關羽</t>
+  </si>
+  <si>
+    <t>漢武帝</t>
+  </si>
+  <si>
+    <t>葉問</t>
+  </si>
+  <si>
+    <t>李小龍</t>
+  </si>
+  <si>
+    <t>Depositphotos_24874661_S.jpg</t>
+  </si>
+  <si>
+    <t>Depositphotos_483594438_S.jpg</t>
+  </si>
+  <si>
+    <t>Depositphotos_3545955_S.jpg</t>
+  </si>
+  <si>
+    <t>Depositphotos_167903126_S.jpg</t>
+  </si>
+  <si>
+    <t>Depositphotos_46890271_S.jpg</t>
+  </si>
+  <si>
+    <t>Depositphotos_182468906_S.jpg</t>
+  </si>
+  <si>
+    <t>Depositphotos_150087320_S.jpg</t>
+  </si>
+  <si>
+    <t>Depositphotos_588451274_S.jpg</t>
+  </si>
+  <si>
+    <t>Depositphotos_78446876_S.jpg</t>
+  </si>
+  <si>
+    <t>Depositphotos_243765230_S.jpg</t>
+  </si>
+  <si>
+    <t>Depositphotos_235354820_S.jpg</t>
+  </si>
+  <si>
+    <t>Depositphotos_109266734_S.jpg</t>
+  </si>
+  <si>
+    <t>Depositphotos_53294871_S.jpg</t>
+  </si>
+  <si>
+    <t>Depositphotos_538152308_S.jpg</t>
+  </si>
+  <si>
+    <t>Depositphotos_34914703_S.jpg</t>
+  </si>
+  <si>
+    <t>Depositphotos_726642688_S.jpg</t>
+  </si>
+  <si>
+    <t>Depositphotos_248958208_S.jpg</t>
+  </si>
+  <si>
+    <t>Depositphotos_63111601_S.jpg</t>
+  </si>
+  <si>
+    <t>香港中央圖書館位於銅鑼灣摩頓台，大樓中間有一座拱門設計，象徵「知識之門」隨時打開。中圖標誌由圓形、正方和三角組成，設計靈感源自中國「天圓地方」和「天人合一」的哲學。三個圖形分別代表天、地和知識的累積。</t>
+  </si>
+  <si>
+    <t>MoA_Outlook_blurred.jpg</t>
+  </si>
+  <si>
+    <t>new city hall.jpg</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>HKCL_01.jpg</t>
+  </si>
+  <si>
+    <t>香港文物探知館</t>
+  </si>
+  <si>
+    <t>珠：珠江；澳：大澳</t>
+  </si>
+  <si>
+    <t>奶黃包</t>
+  </si>
+  <si>
+    <t>廣深港高速鐵路</t>
+  </si>
+  <si>
+    <t>史前藝術</t>
+  </si>
+  <si>
+    <t>西式歌劇</t>
+  </si>
+  <si>
+    <t>東區</t>
+  </si>
+  <si>
+    <t>1972年</t>
+  </si>
+  <si>
+    <t>現代雕塑及裝置藝術</t>
+  </si>
+  <si>
+    <t>珠：珠江；澳：澳門</t>
+  </si>
+  <si>
+    <t>1982年</t>
+  </si>
+  <si>
+    <t>現代與當代視覺文化</t>
+  </si>
+  <si>
+    <t>大嶼山</t>
+  </si>
+  <si>
+    <t>圍頭人</t>
+  </si>
+  <si>
+    <t>魁星半亭</t>
+  </si>
+  <si>
+    <t>九龍氣象分析中心</t>
+  </si>
+  <si>
+    <t>辦公室</t>
+  </si>
+  <si>
+    <t>台長辦公室及行政中心</t>
+  </si>
+  <si>
+    <t>寓意人丁興旺</t>
+  </si>
+  <si>
+    <t>Clock Tower_AMO.png</t>
+  </si>
+  <si>
+    <t>KLC_AMO.png</t>
+  </si>
+  <si>
+    <t>Lui Seng Chun_AMO.png</t>
+  </si>
+  <si>
+    <t>HKO_AMO.png</t>
+  </si>
+  <si>
+    <t>1881_AMO.png</t>
+  </si>
+  <si>
+    <t>bluehouse_AMO.png</t>
+  </si>
+  <si>
+    <t>Tai Kwun_AMO.png</t>
+  </si>
+  <si>
+    <t>high street_AMO.png</t>
+  </si>
+  <si>
+    <t>Former French Mission Building1_AMO.png</t>
+  </si>
+  <si>
+    <t>Kom Tong Hall_AMO.png</t>
+  </si>
+  <si>
+    <t>Liu Man Shek Tong Ancestral Hall_AMO.png</t>
+  </si>
+  <si>
+    <t>Tai Fu Tai Mansion_AMO.png</t>
+  </si>
+  <si>
+    <t>Tin Hau Temple, Joss House Bay, Sai Kung_AMO.png</t>
+  </si>
+  <si>
+    <t>Sam Tung Uk Village_AMO.png</t>
+  </si>
+  <si>
+    <t>Old Tai Po Market Railway Station_AMO.png</t>
+  </si>
+  <si>
+    <t>Tung Chung Fort, Lantau Island_AMO.png</t>
+  </si>
+  <si>
+    <t>Tin Hau Temple and the adjoining buildings_AMO.png</t>
+  </si>
+  <si>
+    <t>Signal Tower at Blackhead Point_AMO.png</t>
+  </si>
+  <si>
+    <t>Man Mo Temple Compound_AMO.png</t>
+  </si>
+  <si>
+    <t>前九廣鐵路鐘樓以紅磚及花崗岩建造，具愛德華時代古典復興建築風格，樓高44米，樓頂裝有7米高的避雷針。鐘樓上部為八角形，有圓頂鐘塔，白色的古典裝飾如卷形扶壁、柱子及簷飾等，與紅磚形成強烈對比。&lt;br/&gt;
+&lt;br/&gt;
+隨着九廣鐵路總站於1975年遷往紅磡，尖沙咀的總站大樓於1978年拆卸，原址保存的鐘樓，成為見證香港鐵路早期歷史的重要標誌。&lt;br/&gt;
+&lt;br/&gt;
+前九廣鐵路鐘樓於1990年列為古蹟。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷生春是一幢四層高的唐樓，位處九龍旺角一幅三角形土地。雷生春建於1931年，由九龍巴士（一九三三）有限公司其中一名創辦人雷亮（1863年至1944年）擁有。雷氏家族在地舖經營藥店，並居於樓上各層。在雷亮於1944年辭世後幾年，藥店結業。2003年，雷氏家族將建築物贈予香港政府作保育之用，這是首次業主將歷史建築捐贈給政府。&lt;br/&gt;
+&lt;br/&gt;
+雷生春由建築師W. H. Bourne設計。建築物為新古典主義風格，帶裝飾藝術元素，有明顯的水平線條和大量古典元素，正立面採用弧形設計。&lt;br/&gt;
+&lt;br/&gt;
+在第一期活化歷史建築伙伴計劃下，香港浸會大學於2012年將雷生春活化為中醫藥保健中心，並一直營運。雷生春除了重新用作醫療相關設施以發揮原有功能外，其原有建築面貌及構件，包括花崗石柱、水磨石外牆、地磚和樓梯等均妥善保留。雷生春見證了一個備受尊重的家族的歷史，包括他們經營的藥店在第二次世界大戰前後的經濟活動。&lt;br/&gt;
+&lt;br/&gt;
+雷生春於2022年列為古蹟。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香港天文台建於1883年，坐落於九龍一小山丘上，並於1912年正式命名為皇家香港天文台。天文台具維多利亞殖民建築風格，樓高兩層，呈長方形，外牆經過粉飾，拱形窗和長廊別具特色。隨著附近之新大樓落成，天文台各技術及職務部門已遷往新廈。不過，舊大樓仍為台長辦公室及行政中心。隨著1997年7月1日香港主權回歸中國，復稱「香港天文台」。&lt;br/&gt;
+&lt;br/&gt;
+香港天文台於1984年列為古蹟。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前水警總部建成於1884年，為現存最古老的政府建築之一；整組建築群包括主樓、馬廄及報時塔（俗稱圓屋）。除日佔期間（1941至1945年）曾用作日本海軍基地外，至1996年為止，一直為水警所用。主樓本為一所兩層高建築，後於1920年代加建一層，主樓東南及西南兩翼為已婚職員宿舍。日佔期間於水警總部前草地下建有大規模地下通道。二次大戰後，為安全起見，封閉地下通道，及重鋪草地。報時塔可謂整座水警總部最具特色之建築，為海港船隻報時。其報時功能於1907年大包米的訊號塔落成啟用後而消失。&lt;br/&gt;
+&lt;br/&gt;
+2003年，政府推出發展前水警總部文物旅遊計劃，邀請私人發展商以招標形式去保存、修復和發展該歷史地段。此計劃於2009年完成，前水警總部建築群於修復及活化後名為「1881」。&lt;br/&gt;
+&lt;br/&gt;
+前水警總部於1994年列為古蹟。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>前中區警署是香港現存少數建於十九世紀的警署建築之一，在二戰前用作警察總部，負責香港的執法工作。該處在戰後曾用作港島總區總部及中區警署，於2004年12月正式關閉，以進行活化再利用。前中區警署、中央裁判司署及域多利監獄於2018年活化為「大館</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>─</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>古蹟及藝術館」，並對公眾開放。&lt;br/&gt;
+&lt;br/&gt;
+在該建築群中，最突出的建築物為營房大樓（1864年）和警察總部大樓（1919年）。營房大樓曾為200名單身警員及單身和已婚警長提供住宿，其設計以英國軍營為藍本，正面面向操場，採用新古典主義建築風格。大樓於1905年加建一層。室內的樓梯和地板以厚重的花崗石建成，別具特色。遊廊和高天花的通風柵格是因應香港的亞熱帶氣候而採用的建築設計。&lt;br/&gt;
+&lt;br/&gt;
+前中區警署、中央裁判司署和域多利監獄組成了一組標誌著香港法律及紀律的歷史建築群。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">位於中環炮台里的前法國外方傳道會大樓由法國外方傳道會於1917年興建，用作教會在香港的司帳處。1941年香港淪陷前，大樓曾一度被政府徵用。第二次世界大戰結束後，大樓旋即被用作臨時香港政府總部。法國傳道會與香港政府在1952年簽訂該大樓的買賣合約。自1953年起，大樓先後用作教育司署的辦事處、維多利亞地方法院、最高法院和政府新聞處的辦事處。由1997至2015年，大樓供香港終審法院使用。&lt;br/&gt;
+&lt;br/&gt;
+大樓以花崗石和紅磚建成，屬愛德華時期的新古典風格。大樓樓高三層，並設有地下室，西北隅建有一座圓頂小教堂
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘棠第於1914年興建，以第一任屋主何甘棠的名字命名。政府於2004年購得甘棠第，並將之改建為孫中山紀念館。該紀念館自2006年12月起開放給公眾參觀。&lt;br/&gt;
+&lt;br/&gt;
+甘棠第屬綜合古典風格的建築，這種風格在英皇愛德華時期的香港甚為流行。建築物的牆身由紅磚築砌，門窗四周飾有花崗石，露台建有精巧華麗的鐵製欄杆。甘棠第是本港最先以鋼架興建，並鋪設入牆電線的建築物之一。&lt;br/&gt;
+&lt;br/&gt;
+建築物內部富麗堂皇，糅合了巴洛克及洛可可風格的建築特色。地庫至二樓以寬闊華麗的樓梯連接，梯上設有精緻的扶欄。主要房間的天花均飾有以金箔點綴的灰塑鑲板，而主樓梯及其他當眼位置亦裝設了色彩斑斕的玻璃窗，並以當時流行的新藝術風格圖案作為裝飾。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廖萬石堂位於上水門口村，由廖族於1751年建成，是香港最具規模的祠堂之一。「萬石」之名與宋朝（960年 – 1279年）廖族遠祖廖剛及其4名兒子有關。相傳他們5人皆為高官，年享俸祿合共萬石，後人為紀念他們，遂將祖祠命名為「廖萬石堂」。&lt;br/&gt;
+&lt;br/&gt;
+廖萬石堂屬三進兩院式建築，建築裝飾華麗，灰塑、木刻、壁畫、泥塑等比目皆是，題材多為傳統吉祥圖案。&lt;br/&gt;
+&lt;br/&gt;
+廖萬石堂於1985年列為古蹟，建築物曾多次進行重修，最近一次於2016年完成。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大夫第建於清朝同治四年（1865年），是文頌鑾的府第。據文氏族譜所載，文氏的先祖源自四川，南宋（1127至1279年）時期遷徙至江西和廣東，十五世紀開始定居元朗新田。文頌鑾為文氏二十一世祖，獲賜封大夫銜。&lt;br/&gt;
+&lt;br/&gt;
+大夫第是傳統華南士紳階級府第建築的典範，也是本港最華麗的歷史建築物之一。大夫第主建築為兩進三開間布局，天井兩旁為廂房。主建築東西兩側各有面闊一開間的附屬建築物，東翼設有花廳和內院，西翼建築則以長廊相隔，設有廚房、偏廳和廁所。&lt;br/&gt;
+&lt;br/&gt;
 大夫第的全面修復工程在古物古蹟辦事處和建築署的監督下於1988年竣工。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>三棟屋是典型的客家圍村，於1786年由陳姓客家人建立。陳氏家族於十八世紀中期從廣東移居本港，擇居荃灣，並且填平沿海的土地作耕種之用。三棟屋原先只有三列房舍，由族長陳任盛所建，他的後人先後在村的兩旁及後面加建房舍。位於中軸線上的正廳，擺放了陳氏先祖的神位，面向正門，正門石楣上刻有「陳氏家祠」四字。三棟屋於1987年全面復修，竣工後成為三棟屋博物館，開放予市民參觀。
+    <t>三棟屋是典型的客家圍村，於1786年由陳姓客家人建立。陳氏家族於十八世紀中期從廣東移居本港，擇居荃灣，並且填平沿海的土地作耕種之用。三棟屋原先只有三列房舍，由族長陳任盛所建，他的後人先後在村的兩旁及後面加建房舍。位於中軸線上的正廳，擺放了陳氏先祖的神位，面向正門，正門石楣上刻有「陳氏家祠」四字。三棟屋於1987年全面復修，竣工後成為三棟屋博物館，開放予市民參觀。&lt;br/&gt;
+&lt;br/&gt;
 三棟屋村於1981年列為古蹟。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>舊大埔墟火車站建成於1913年，其正面、屋頂及裝飾等均具中國建築特色，但火車站的內部則按火車站運作需要而設計。過往九廣鐵路沿線的其他火車站均為西式設計，唯獨大埔墟火車站是按照中國傳統建築風格建成。1983年新大埔墟火車站建成，代替原來的車站。舊大埔墟火車站經全面修復後，現用作香港鐵路博物館。
+    <t>舊大埔墟火車站建成於1913年，其正面、屋頂及裝飾等均具中國建築特色，但火車站的內部則按火車站運作需要而設計。過往九廣鐵路沿線的其他火車站均為西式設計，唯獨大埔墟火車站是按照中國傳統建築風格建成。1983年新大埔墟火車站建成，代替原來的車站。舊大埔墟火車站經全面修復後，現用作香港鐵路博物館。&lt;br/&gt;
+&lt;br/&gt;
 舊大埔墟火車站於1984年列為古蹟。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>東涌炮台在清代稱為東涌所城，為大鵬右營的水師總部。炮台入口之花崗石額刻有道光十二年（1832年）字樣，當為建造年代。自新界在1898年租借給英國，清兵自炮台撤退後，炮台先用作警署，後用作華英中學校舍、東涌鄉事委員會及東涌公立學校。東涌公立學校於2003年停辦。
+    <t>東涌炮台在清代稱為東涌所城，為大鵬右營的水師總部。炮台入口之花崗石額刻有道光十二年（1832年）字樣，當為建造年代。自新界在1898年租借給英國，清兵自炮台撤退後，炮台先用作警署，後用作華英中學校舍、東涌鄉事委員會及東涌公立學校。東涌公立學校於2003年停辦。&lt;br/&gt;
+&lt;br/&gt;
 東涌炮台於1979年列為古蹟。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>位於油麻地的天后古廟及其鄰接建築物兼具祭祀、仲裁及教學等多種功能，對九龍區歷史意義重大。天后古廟由水陸居民興建，不但是當地社區重要的宗教場所，亦是當區集體文化身分的印記。天后古廟及其鄰接建築物是九龍區現存規模最大的天后廟建築群，亦見證油麻地地貌及文化的變遷。
-天后古廟是在該址首座建成的建築物，取代原先大概於1865年由當地居民興建的天后古廟。廟宇於1876年遷往現址，並於1878年建成。其他四座毗鄰廟宇的建築物，即公所、福德祠及兩所書院，其後於1894年至1920年間分階段落成。
-在五座建築物中，以天后古廟規模最大，裝潢最巧究。古廟正面飾有前簷廊，而簷廊兩邊各有一個鼓台。廟宇屬兩進三開間清代民間建築，兩進之間設有天井。鼓台的花崗石柱底座雕工精細。前進的正脊飾有造工精巧、歷史悠久的石灣陶塑。
+    <t>位於油麻地的天后古廟及其鄰接建築物兼具祭祀、仲裁及教學等多種功能，對九龍區歷史意義重大。天后古廟由水陸居民興建，不但是當地社區重要的宗教場所，亦是當區集體文化身分的印記。天后古廟及其鄰接建築物是九龍區現存規模最大的天后廟建築群，亦見證油麻地地貌及文化的變遷。&lt;br/&gt;
+&lt;br/&gt;
+天后古廟是在該址首座建成的建築物，取代原先大概於1865年由當地居民興建的天后古廟。廟宇於1876年遷往現址，並於1878年建成。其他四座毗鄰廟宇的建築物，即公所、福德祠及兩所書院，其後於1894年至1920年間分階段落成。&lt;br/&gt;
+&lt;br/&gt;
+在五座建築物中，以天后古廟規模最大，裝潢最巧究。古廟正面飾有前簷廊，而簷廊兩邊各有一個鼓台。廟宇屬兩進三開間清代民間建築，兩進之間設有天井。鼓台的花崗石柱底座雕工精細。前進的正脊飾有造工精巧、歷史悠久的石灣陶塑。&lt;br/&gt;
+&lt;br/&gt;
 天后古廟及其鄰接建築物於2020年列為古蹟。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>訊號塔坐落於大包米訊號山花園，由香港天文台於1907年興建，以擺放原置於附近前水警總部圓屋內的時間球。香港有兩座專為向海員和市民準確報時而興建的建築物，訊號塔是其中之一。1908年1月8日，時間球於訊號塔恢復報時服務，其後於1933年6月30日終止。訊號塔現已成為訊號山花園的獨特標誌。
-訊號塔原高42呎，共三層，其後在1927年加建一層，使塔身高度增加約20呎，讓訊號塔不致被高樓遮蔽。訊號塔的建築帶有濃厚的古典巴洛克色彩，並加入當時流行的愛德華式裝飾特色，以紅磚配上淺色石構件。塔身呈方形，角位捨用常見的方角，採用雅致的斜削角。紅磚為特別燒製，並採用英式砌法，石作則以本地花崗石雕砌而成。其他建築特色包括花崗石基座、腰線和檐口，以及「吉布斯飾邊」的窗戶。
+    <t>訊號塔坐落於大包米訊號山花園，由香港天文台於1907年興建，以擺放原置於附近前水警總部圓屋內的時間球。香港有兩座專為向海員和市民準確報時而興建的建築物，訊號塔是其中之一。1908年1月8日，時間球於訊號塔恢復報時服務，其後於1933年6月30日終止。訊號塔現已成為訊號山花園的獨特標誌。&lt;br/&gt;
+&lt;br/&gt;
+訊號塔原高42呎，共三層，其後在1927年加建一層，使塔身高度增加約20呎，讓訊號塔不致被高樓遮蔽。訊號塔的建築帶有濃厚的古典巴洛克色彩，並加入當時流行的愛德華式裝飾特色，以紅磚配上淺色石構件。塔身呈方形，角位捨用常見的方角，採用雅致的斜削角。紅磚為特別燒製，並採用英式砌法，石作則以本地花崗石雕砌而成。其他建築特色包括花崗石基座、腰線和檐口，以及「吉布斯飾邊」的窗戶。&lt;br/&gt;
+&lt;br/&gt;
 大包米訊號塔於2015年列為古蹟。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>文武廟為廟宇組群，位於上環荷李活道，文武廟主要供奉文昌及武帝，請問武帝即是哪一位歷史人物？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文武廟為廟宇組群，位於上環荷李活道，由文武廟、列聖宮和公所三幢建築物組成。該廟宇由華人富商興建，估計於1847至1862年期間落成。文武廟主要為供奉文昌及武帝（關羽），列聖宮則用作供奉諸神列聖。公所為區內華人議事及排難解紛的場所。三幢建築物以兩條小巷分隔。
-文武廟對本港具有重要的歷史和社會意義，反映昔日香港華人的社會組織和宗教習俗。
-文武廟組群屬典型的傳統中式民間建築，飾有精緻的陶塑、花崗石雕刻、木雕、灰塑和壁畫，盡顯精湛的傳統工藝技術。
+    <t>文武廟為廟宇組群，位於上環荷李活道，由文武廟、列聖宮和公所三幢建築物組成。該廟宇由華人富商興建，估計於1847至1862年期間落成。文武廟主要為供奉文昌及武帝（關羽），列聖宮則用作供奉諸神列聖。公所為區內華人議事及排難解紛的場所。三幢建築物以兩條小巷分隔。&lt;br/&gt;
+&lt;br/&gt;
+文武廟對本港具有重要的歷史和社會意義，反映昔日香港華人的社會組織和宗教習俗。&lt;br/&gt;
+&lt;br/&gt;
+文武廟組群屬典型的傳統中式民間建築，飾有精緻的陶塑、花崗石雕刻、木雕、灰塑和壁畫，盡顯精湛的傳統工藝技術。&lt;br/&gt;
+&lt;br/&gt;
 文武廟於2010年列為古蹟。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>訊號塔坐落於大包米訊號山花園，由香港天文台於1907年興建，請問它本來是以下哪一種用途？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>位於油麻地的天后古廟及其鄰接建築物兼具祭祀、仲裁及教學等多種功能，見證油麻地地貌及文化的變遷，請問建築群包括天后廟、公所、福德祠及以下哪一種建築？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>東涌炮台以前稱為東涌所城，為保護國家安全而設。請問東涌炮台在甚麼朝代建成呢？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1983年新大埔墟火車站建成，代替原來的車站。舊大埔墟火車站經全面修復後，已改作其他用途。請問是以下哪一項用途呢？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三棟屋是位於荃灣的圍村，請問當地原居民是來自甚麼族群？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佛堂門天后古廟（「古廟」）又稱「大廟」，位於佛堂門北岸，是本港歷史最悠久和規模最大的天后廟之一。請問此廟始建於甚麼時期？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大夫第位於元朗新田永平村建於1865年。請問名稱中的「大夫」是以下哪一個意思？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>廖萬石堂位於上水門口村，是香港最具規模的祠堂之一。請問名稱中的「萬石」是以下哪一個意思？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>美利樓位於赤柱佳美道，原為駐港英軍軍營和政府部門的辦事處，後來得以保育，請問它用了以下哪一種保育方式？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>位於中環衛城道的甘棠第於1914年興建，以下哪一個是甘棠第現在的用途？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>位於中環炮台里的前法國外方傳道會大樓於1917年興建，以下哪一個是它的著名舊用途？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>於2001年，香港政府決定保育西營盤社區綜合大樓請問它用了以下哪一種保育方式？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作為香港一級歷史建築的灣仔藍屋，其實原本並不是藍色的。在1990年代前，灣仔藍屋原為「灰屋」，請問為甚麼後來會變成藍色呢？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>香港天文台位於尖沙咀，隨著附近之新大樓落成，天文台各部門已遷往新廈。不過，舊大樓仍保留一個用途，請問是以下哪一種用途？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2003年，政府推出發展前水警總部文物旅遊計劃，前水警總部建築群經私人發展商修復及活化後命名為「1881」。請問其落成年份為何年？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>district</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>question</t>
-  </si>
-  <si>
-    <t>answer</t>
-  </si>
-  <si>
-    <t>knowledge</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>sourceUrl</t>
-  </si>
-  <si>
-    <t>image</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>國際金融中心二期</t>
-  </si>
-  <si>
-    <t>中環中心</t>
-  </si>
-  <si>
-    <t>環球貿易廣場</t>
-  </si>
-  <si>
-    <t>中環廣場</t>
-  </si>
-  <si>
-    <t>灣仔區</t>
-  </si>
-  <si>
-    <t>中西區</t>
-  </si>
-  <si>
-    <t>油尖旺區</t>
-  </si>
-  <si>
-    <t>「青」：青龍頭；「馬」：馬鞍山</t>
-  </si>
-  <si>
-    <t>「青」：青衣；「馬」：馬灣</t>
-  </si>
-  <si>
-    <t>「青」：青龍頭；「馬」：馬灣</t>
-  </si>
-  <si>
-    <t>「青」：青衣；「馬」：馬鞍山</t>
-  </si>
-  <si>
-    <t>舊機場難以擴建</t>
-  </si>
-  <si>
-    <t>舊機場帶來噪音污染</t>
-  </si>
-  <si>
-    <t>新機場較為安全</t>
-  </si>
-  <si>
-    <t>新機場的建築成本很低</t>
-  </si>
-  <si>
-    <t>第一</t>
-  </si>
-  <si>
-    <t>第二</t>
-  </si>
-  <si>
-    <t>第三</t>
-  </si>
-  <si>
-    <t>第四</t>
-  </si>
-  <si>
-    <t>格仔餅</t>
-  </si>
-  <si>
-    <t>菠蘿包</t>
-  </si>
-  <si>
-    <t>蛋撻</t>
-  </si>
-  <si>
-    <t>旺角</t>
-  </si>
-  <si>
-    <t>銅鑼灣</t>
-  </si>
-  <si>
-    <t>灣仔</t>
-  </si>
-  <si>
-    <t>尖沙咀</t>
-  </si>
-  <si>
-    <t>元代</t>
-  </si>
-  <si>
-    <t>明代</t>
-  </si>
-  <si>
-    <t>清代</t>
-  </si>
-  <si>
-    <t>現代</t>
-  </si>
-  <si>
-    <t>香港文化中心</t>
-  </si>
-  <si>
-    <t>香港特別行政區政府總部</t>
-  </si>
-  <si>
-    <t>香港故宮文化博物館</t>
-  </si>
-  <si>
-    <t>香港會議展覽中心</t>
-  </si>
-  <si>
-    <t>港鐵九龍綫</t>
-  </si>
-  <si>
-    <t>九廣鐵路</t>
-  </si>
-  <si>
-    <t>機埸快綫</t>
-  </si>
-  <si>
-    <t>珠：珠海；澳：澳頭</t>
-  </si>
-  <si>
-    <t>珠：珠海；澳：澳門</t>
-  </si>
-  <si>
-    <t>道教</t>
-  </si>
-  <si>
-    <t>佛教</t>
-  </si>
-  <si>
-    <t>儒教</t>
-  </si>
-  <si>
-    <t>基督教</t>
-  </si>
-  <si>
-    <t>三教同尊</t>
-  </si>
-  <si>
-    <t>香港藝術館</t>
-  </si>
-  <si>
-    <t>香港歷史博物館</t>
-  </si>
-  <si>
-    <t>金鐘</t>
-  </si>
-  <si>
-    <t>中環</t>
-  </si>
-  <si>
-    <t>北角</t>
-  </si>
-  <si>
-    <t>1952年</t>
-  </si>
-  <si>
-    <t>1962年</t>
-  </si>
-  <si>
-    <t>古代繪畫及書法</t>
-  </si>
-  <si>
-    <t>香港島</t>
-  </si>
-  <si>
-    <t>九龍</t>
-  </si>
-  <si>
-    <t>新界</t>
-  </si>
-  <si>
-    <t>觀塘</t>
-  </si>
-  <si>
-    <t>九龍城</t>
-  </si>
-  <si>
-    <t>紅磡</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 音樂劇</t>
-  </si>
-  <si>
-    <t>中國戲曲</t>
-  </si>
-  <si>
-    <t>舞蹈</t>
-  </si>
-  <si>
-    <t>海事處總部</t>
-  </si>
-  <si>
-    <t>水警總部</t>
-  </si>
-  <si>
-    <t>教會</t>
-  </si>
-  <si>
-    <t>鐵路總站</t>
-  </si>
-  <si>
-    <t>邀山樓</t>
-  </si>
-  <si>
-    <t>廣蔭庭</t>
-  </si>
-  <si>
-    <t>衙門</t>
-  </si>
-  <si>
-    <t>屈臣氏藥房</t>
-  </si>
-  <si>
-    <t>九龍巴士</t>
-  </si>
-  <si>
-    <t>九龍倉庫</t>
-  </si>
-  <si>
-    <t>中華電力</t>
-  </si>
-  <si>
-    <t>深空觀測中心</t>
-  </si>
-  <si>
-    <t>颱風預報及雨量統計中心</t>
-  </si>
-  <si>
-    <t>政府翻新時物料庫只剩下水務署常用的藍色油漆</t>
-  </si>
-  <si>
-    <t>新業主希望營造地中海風情</t>
-  </si>
-  <si>
-    <t>藍色象徵水，有防火的寓意</t>
-  </si>
-  <si>
-    <t>藍色有助降溫</t>
-  </si>
-  <si>
-    <t>前中區警署</t>
-  </si>
-  <si>
-    <t>前中央裁判司署</t>
-  </si>
-  <si>
-    <t>前域多利監獄</t>
-  </si>
-  <si>
-    <t>前終審法院大樓</t>
-  </si>
-  <si>
-    <t>完整保存</t>
-  </si>
-  <si>
-    <t>選址重建</t>
-  </si>
-  <si>
-    <t>活化</t>
-  </si>
-  <si>
-    <t>保留部分建築</t>
-  </si>
-  <si>
-    <t>前商人會所</t>
-  </si>
-  <si>
-    <t>前終審法院</t>
-  </si>
-  <si>
-    <t>前軍營</t>
-  </si>
-  <si>
-    <t>茶具博物館</t>
-  </si>
-  <si>
-    <t>孫中山紀念館</t>
-  </si>
-  <si>
-    <t>餐廳</t>
-  </si>
-  <si>
-    <t>建築時用了萬多塊大石</t>
-  </si>
-  <si>
-    <t>與祖先為高官有關</t>
-  </si>
-  <si>
-    <t>取其平穩之意，希望生活平安</t>
-  </si>
-  <si>
-    <t>意指船底用作平衡船隻的石頭，紀念廖氏由漁業發跡</t>
-  </si>
-  <si>
-    <t>代表居住者的社會地位</t>
-  </si>
-  <si>
-    <t>代表居住者的職業為醫生，而醫生古稱大夫</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 「大夫」為居住者的名稱</t>
-  </si>
-  <si>
-    <t>宋</t>
-  </si>
-  <si>
-    <t>元</t>
-  </si>
-  <si>
-    <t>明</t>
-  </si>
-  <si>
-    <t>清</t>
-  </si>
-  <si>
-    <t>鶴佬人</t>
-  </si>
-  <si>
-    <t>蜑家人</t>
-  </si>
-  <si>
-    <t>客家人</t>
-  </si>
-  <si>
-    <t>博物館</t>
-  </si>
-  <si>
-    <t>商店</t>
-  </si>
-  <si>
-    <t>宋朝</t>
-  </si>
-  <si>
-    <t>元朝</t>
-  </si>
-  <si>
-    <t>明朝</t>
-  </si>
-  <si>
-    <t>清朝</t>
-  </si>
-  <si>
-    <t>戲院</t>
-  </si>
-  <si>
-    <t>書院</t>
-  </si>
-  <si>
-    <t>醫院</t>
-  </si>
-  <si>
-    <t>花園</t>
-  </si>
-  <si>
-    <t>糧倉</t>
-  </si>
-  <si>
-    <t>觀測氣象</t>
-  </si>
-  <si>
-    <t>報時</t>
-  </si>
-  <si>
-    <t>觀星</t>
-  </si>
-  <si>
-    <t>關羽</t>
-  </si>
-  <si>
-    <t>漢武帝</t>
-  </si>
-  <si>
-    <t>葉問</t>
-  </si>
-  <si>
-    <t>李小龍</t>
-  </si>
-  <si>
-    <t>Depositphotos_24874661_S.jpg</t>
-  </si>
-  <si>
-    <t>Depositphotos_483594438_S.jpg</t>
-  </si>
-  <si>
-    <t>Depositphotos_3545955_S.jpg</t>
-  </si>
-  <si>
-    <t>Depositphotos_167903126_S.jpg</t>
-  </si>
-  <si>
-    <t>Depositphotos_46890271_S.jpg</t>
-  </si>
-  <si>
-    <t>Depositphotos_182468906_S.jpg</t>
-  </si>
-  <si>
-    <t>Depositphotos_150087320_S.jpg</t>
-  </si>
-  <si>
-    <t>Depositphotos_588451274_S.jpg</t>
-  </si>
-  <si>
-    <t>Depositphotos_78446876_S.jpg</t>
-  </si>
-  <si>
-    <t>Depositphotos_243765230_S.jpg</t>
-  </si>
-  <si>
-    <t>Depositphotos_235354820_S.jpg</t>
-  </si>
-  <si>
-    <t>Depositphotos_109266734_S.jpg</t>
-  </si>
-  <si>
-    <t>Depositphotos_53294871_S.jpg</t>
-  </si>
-  <si>
-    <t>Depositphotos_538152308_S.jpg</t>
-  </si>
-  <si>
-    <t>Depositphotos_34914703_S.jpg</t>
-  </si>
-  <si>
-    <t>Depositphotos_726642688_S.jpg</t>
-  </si>
-  <si>
-    <t>Depositphotos_248958208_S.jpg</t>
-  </si>
-  <si>
-    <t>Depositphotos_63111601_S.jpg</t>
-  </si>
-  <si>
-    <t>香港中央圖書館位於銅鑼灣摩頓台，大樓中間有一座拱門設計，象徵「知識之門」隨時打開。中圖標誌由圓形、正方和三角組成，設計靈感源自中國「天圓地方」和「天人合一」的哲學。三個圖形分別代表天、地和知識的累積。</t>
-  </si>
-  <si>
-    <t>MoA_Outlook_blurred.jpg</t>
-  </si>
-  <si>
-    <t>new city hall.jpg</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>HKCL_01.jpg</t>
-  </si>
-  <si>
-    <t>香港文物探知館</t>
-  </si>
-  <si>
-    <t>珠：珠江；澳：大澳</t>
-  </si>
-  <si>
-    <t>奶黃包</t>
-  </si>
-  <si>
-    <t>廣深港高速鐵路</t>
-  </si>
-  <si>
-    <t>史前藝術</t>
-  </si>
-  <si>
-    <t>西式歌劇</t>
-  </si>
-  <si>
-    <t>東區</t>
-  </si>
-  <si>
-    <t>1972年</t>
-  </si>
-  <si>
-    <t>現代雕塑及裝置藝術</t>
-  </si>
-  <si>
-    <t>珠：珠江；澳：澳門</t>
-  </si>
-  <si>
-    <t>1982年</t>
-  </si>
-  <si>
-    <t>現代與當代視覺文化</t>
-  </si>
-  <si>
-    <t>大嶼山</t>
-  </si>
-  <si>
-    <t>圍頭人</t>
-  </si>
-  <si>
-    <t>魁星半亭</t>
-  </si>
-  <si>
-    <t>九龍氣象分析中心</t>
-  </si>
-  <si>
-    <t>辦公室</t>
-  </si>
-  <si>
-    <t>台長辦公室及行政中心</t>
-  </si>
-  <si>
-    <t>寓意人丁興旺</t>
-  </si>
-  <si>
-    <t>Clock Tower_AMO.png</t>
-  </si>
-  <si>
-    <t>KLC_AMO.png</t>
-  </si>
-  <si>
-    <t>Lui Seng Chun_AMO.png</t>
-  </si>
-  <si>
-    <t>HKO_AMO.png</t>
-  </si>
-  <si>
-    <t>1881_AMO.png</t>
-  </si>
-  <si>
-    <t>bluehouse_AMO.png</t>
-  </si>
-  <si>
-    <t>Tai Kwun_AMO.png</t>
-  </si>
-  <si>
-    <t>high street_AMO.png</t>
-  </si>
-  <si>
-    <t>Former French Mission Building1_AMO.png</t>
-  </si>
-  <si>
-    <t>Kom Tong Hall_AMO.png</t>
-  </si>
-  <si>
-    <t>Liu Man Shek Tong Ancestral Hall_AMO.png</t>
-  </si>
-  <si>
-    <t>Tai Fu Tai Mansion_AMO.png</t>
-  </si>
-  <si>
-    <t>Tin Hau Temple, Joss House Bay, Sai Kung_AMO.png</t>
-  </si>
-  <si>
-    <t>Sam Tung Uk Village_AMO.png</t>
-  </si>
-  <si>
-    <t>Old Tai Po Market Railway Station_AMO.png</t>
-  </si>
-  <si>
-    <t>Tung Chung Fort, Lantau Island_AMO.png</t>
-  </si>
-  <si>
-    <t>Tin Hau Temple and the adjoining buildings_AMO.png</t>
-  </si>
-  <si>
-    <t>Signal Tower at Blackhead Point_AMO.png</t>
-  </si>
-  <si>
-    <t>Man Mo Temple Compound_AMO.png</t>
+    <t>環球貿易廣場位於香港西九龍柯士甸道西1號，共118層，樓高484米，全香港最高的摩天大樓，世界排名12。&lt;br/&gt;
+&lt;br/&gt;
+國際金融中心二期位於香港島中環金融街8號，是港鐵機場快綫及東涌綫香港站上蓋，樓高415米，是目前香港第二高的摩天大樓，世界排名35。&lt;br/&gt;
+&lt;br/&gt;
+中環廣場位於灣仔北港灣道18號，於1992年建成時曾是亞洲及香港最高的建築物，樓高374米，目前為全香港第三高的摩天大樓。&lt;br/&gt;
+&lt;br/&gt;
+中環中心位於中環皇后大道中99號，樓高346米，樓高80層，是目前香港第五高的摩天大樓。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>來往香港和九龍的渡輪服務可追溯至1880年成立的「九龍渡海小輪公司」。1898年，天星小輪有限公司成立，收購了所有渡輪，並以其轄下船隻的名稱皆有「星」字而為公司命名。&lt;br/&gt;
+&lt;br/&gt;
+在過往百多年的歲月裏，綠白兩色的天星渡輪每天穿梭港島及九龍兩岸。乘客可從尖沙咀的天星碼頭(梳士巴利道尖沙咀渡輪碼頭)或中環碼頭（中環7號碼頭）、灣仔碼頭登船（會議道灣仔渡輪碼頭），沿途飽覽維港兩岸景色，一嚐這譽為「人生50個必到景點」的滋味。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -1470,7 +1524,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -1478,21 +1532,21 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -1507,6 +1561,12 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1601,8 +1661,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1618,7 +1678,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主題">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -1917,16 +1977,16 @@
   <sheetPr codeName="工作表1"/>
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" zoomScale="48" zoomScaleNormal="48" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="D17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.149999999999999"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" customWidth="1"/>
-    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="7.796875" customWidth="1"/>
+    <col min="2" max="2" width="22.46484375" customWidth="1"/>
     <col min="3" max="3" width="42.6640625" style="1" customWidth="1"/>
-    <col min="4" max="7" width="34.1640625" customWidth="1"/>
+    <col min="4" max="7" width="34.1328125" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
     <col min="9" max="9" width="75.33203125" customWidth="1"/>
     <col min="10" max="10" width="15.6640625" customWidth="1"/>
@@ -1934,1039 +1994,1039 @@
     <col min="12" max="12" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="B1" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="D1" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="E1" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="F1" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="G1" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="H1" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="I1" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="J1" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="L1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="187" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="177.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>47</v>
+        <v>379</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="80.650000000000006">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="H3" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="64.5">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="H4" t="s">
         <v>10</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="80.650000000000006">
       <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="H5" t="s">
         <v>6</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="96.75">
       <c r="A6" t="s">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="H6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="L6" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="64.5">
       <c r="A7" t="s">
         <v>1</v>
       </c>
       <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L7" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="96.75">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="H7" t="s">
-        <v>57</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J7" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="L8" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="48.4">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
         <v>82</v>
       </c>
-      <c r="L7" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="102" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="H8" t="s">
-        <v>54</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K8" s="2" t="s">
+      <c r="C9" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="L8" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="J9" t="s">
+        <v>85</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>341</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="J9" t="s">
-        <v>87</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="L9" s="10" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="153" x14ac:dyDescent="0.2">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="161.25">
       <c r="A10" t="s">
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="H10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="80.650000000000006">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
         <v>89</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K10" s="2" t="s">
+      <c r="C11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="H11" t="s">
+        <v>65</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="L10" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="85" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="H11" t="s">
-        <v>67</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="L11" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="96.75">
       <c r="A12" t="s">
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="H12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K12" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="105" customHeight="1">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="L12" s="10" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="J13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="H13" t="s">
-        <v>62</v>
-      </c>
-      <c r="I13" s="1" t="s">
+      <c r="L13" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="64.5">
+      <c r="A14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="L13" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="68" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="4" t="s">
+      <c r="C14" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>101</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>4</v>
       </c>
       <c r="K14" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="64.5">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
         <v>100</v>
       </c>
-      <c r="L14" s="6" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="68" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>102</v>
-      </c>
       <c r="C15" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="H15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="48.4">
       <c r="A16" t="s">
         <v>1</v>
       </c>
       <c r="B16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="H16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="H16" t="s">
-        <v>57</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="K16" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L16" s="13" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="80.650000000000006">
       <c r="A17" t="s">
         <v>1</v>
       </c>
       <c r="B17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="H17" t="s">
+        <v>60</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="J17" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>350</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>353</v>
-      </c>
-      <c r="H17" t="s">
-        <v>62</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="J17" t="s">
+      <c r="K17" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="64.5">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="H18" t="s">
+        <v>52</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="L17" s="12" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="68" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="J18" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>351</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>354</v>
-      </c>
-      <c r="H18" t="s">
-        <v>54</v>
-      </c>
-      <c r="I18" s="1" t="s">
+      <c r="K18" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="L18" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="48.4">
       <c r="A19" t="s">
         <v>1</v>
       </c>
       <c r="B19" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="H19" t="s">
+        <v>65</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J19" t="s">
         <v>115</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>355</v>
-      </c>
-      <c r="H19" t="s">
-        <v>67</v>
-      </c>
-      <c r="I19" s="1" t="s">
+      <c r="K19" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="J19" t="s">
+      <c r="L19" s="10" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="129">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
         <v>117</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="C20" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H20" t="s">
+        <v>65</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K20" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="L19" s="10" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="136" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="L20" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="96.75">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
         <v>119</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="H20" t="s">
-        <v>67</v>
-      </c>
-      <c r="I20" s="1" t="s">
+      <c r="C21" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="H21" t="s">
+        <v>55</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="102" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" t="s">
-        <v>122</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>348</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="H21" t="s">
-        <v>57</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12">
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12">
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12">
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12">
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12">
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12">
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12">
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12">
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12">
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12">
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:7">
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:7">
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:7">
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:7">
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:7">
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:7">
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="4:7">
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="4:7">
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="4:7">
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="4:7">
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="4:7">
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="4:7">
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="4:7">
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="4:7">
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="4:7">
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="4:7">
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="4:7">
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="4:7">
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="4:7">
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="4:7">
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="4:7">
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="4:7">
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="4:7">
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="4:7">
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="4:7">
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="4:7">
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="4:7">
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="4:7">
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="4:7">
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -3001,221 +3061,221 @@
   <sheetPr codeName="工作表2"/>
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="75" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="L21" sqref="L2:L21"/>
+    <sheetView topLeftCell="D20" zoomScale="75" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.149999999999999"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="2" max="2" width="22.46484375" customWidth="1"/>
     <col min="3" max="3" width="42.6640625" style="1" customWidth="1"/>
-    <col min="4" max="7" width="34.1640625" customWidth="1"/>
+    <col min="4" max="7" width="34.1328125" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
     <col min="9" max="9" width="75.33203125" customWidth="1"/>
     <col min="10" max="10" width="15.6640625" customWidth="1"/>
     <col min="11" max="11" width="22.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="B1" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="D1" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="E1" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="F1" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="G1" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="H1" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="I1" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="J1" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="L1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="136" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="129">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="H2" t="s">
         <v>6</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>149</v>
+        <v>364</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="112.9">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="H3" t="s">
         <v>6</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="289" x14ac:dyDescent="0.2">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="258">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="H4" t="s">
         <v>10</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>151</v>
+        <v>365</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="112.9">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>152</v>
+        <v>366</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="209.65">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="221" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="D6" s="1">
         <v>1874</v>
@@ -3233,19 +3293,19 @@
         <v>10</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>154</v>
+        <v>367</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L6" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="80.650000000000006">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -3253,19 +3313,19 @@
         <v>0</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>2</v>
@@ -3277,13 +3337,13 @@
         <v>4</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="221" x14ac:dyDescent="0.2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="209.65">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -3291,189 +3351,189 @@
         <v>5</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="H8" t="s">
         <v>6</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>159</v>
+        <v>368</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="112.9">
       <c r="A9" t="s">
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="H9" t="s">
         <v>6</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="170" x14ac:dyDescent="0.2">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="161.25">
       <c r="A10" t="s">
         <v>1</v>
       </c>
       <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="H10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="H10" t="s">
-        <v>15</v>
-      </c>
       <c r="I10" s="1" t="s">
-        <v>156</v>
+        <v>369</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="187" x14ac:dyDescent="0.2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="193.5">
       <c r="A11" t="s">
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="H11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>157</v>
+        <v>370</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="96.75">
       <c r="A12" t="s">
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="H12" t="s">
         <v>10</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L12" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="153" x14ac:dyDescent="0.2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="145.15">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -3481,575 +3541,575 @@
         <v>8</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="H13" t="s">
         <v>10</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>11</v>
+        <v>371</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="170" x14ac:dyDescent="0.2">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="161.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="H14" t="s">
         <v>2</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>161</v>
+        <v>372</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="112.9">
       <c r="A15" t="s">
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="H15" t="s">
         <v>2</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="129">
       <c r="A16" t="s">
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="H16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>162</v>
+        <v>373</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="112.9">
       <c r="A17" t="s">
         <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="H17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>163</v>
+        <v>374</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="96.75">
       <c r="A18" t="s">
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="H18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>164</v>
+        <v>375</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="241.9">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="H19" t="s">
         <v>60</v>
       </c>
-      <c r="L18" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="238" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="H19" t="s">
-        <v>62</v>
-      </c>
       <c r="I19" s="1" t="s">
-        <v>165</v>
+        <v>376</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="221" x14ac:dyDescent="0.2">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="209.65">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="H20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>166</v>
+        <v>377</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="204" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="193.5">
       <c r="A21" t="s">
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="H21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>168</v>
+        <v>378</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12">
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12">
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12">
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12">
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12">
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12">
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12">
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12">
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12">
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12">
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:7">
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:7">
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:7">
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:7">
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:7">
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:7">
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="4:7">
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="4:7">
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="4:7">
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="4:7">
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="4:7">
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="4:7">
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="4:7">
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="4:7">
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="4:7">
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="4:7">
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="4:7">
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="4:7">
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="4:7">
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="4:7">
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="4:7">
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="4:7">
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="4:7">
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="4:7">
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="4:7">
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="4:7">
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="4:7">
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="4:7">
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="4:7">
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>

--- a/public/data/question_template_fr Wing_photo inserted_3.xlsx
+++ b/public/data/question_template_fr Wing_photo inserted_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\otwor\Documents\work\slf2024-game\public\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/momo/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C230CD9-A602-4075-9192-EE801A69CFF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0A0207D-0CA2-7548-A9FF-26D19C8909CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37340" yWindow="-11720" windowWidth="28340" windowHeight="20160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Modern" sheetId="2" r:id="rId1"/>
@@ -632,6 +632,816 @@
   </si>
   <si>
     <t>美利樓原位於中環現時中銀大廈的位置，於1846年建成，大樓的設計饒富維多利亞時期的建築風格，曾先後用作駐港英軍軍營和政府部門的辦事處。及後美利樓的結構出現問題，加上社會對中區土地需求殷切，大樓於1982年拆卸，並將拆卸下來的3,000多件組件編上號碼，在1998年移遷至赤柱廣場組合重建。雖然因拆卸時遺失了部分組件如原來用作通風的煙囪，並以其他類似的建築物的組件代替，美利樓仍能大致保留原來的面貌，是赤柱的地標之一。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文武廟為廟宇組群，位於上環荷李活道，文武廟主要供奉文昌及武帝，請問武帝即是哪一位歷史人物？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>訊號塔坐落於大包米訊號山花園，由香港天文台於1907年興建，請問它本來是以下哪一種用途？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位於油麻地的天后古廟及其鄰接建築物兼具祭祀、仲裁及教學等多種功能，見證油麻地地貌及文化的變遷，請問建築群包括天后廟、公所、福德祠及以下哪一種建築？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>東涌炮台以前稱為東涌所城，為保護國家安全而設。請問東涌炮台在甚麼朝代建成呢？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1983年新大埔墟火車站建成，代替原來的車站。舊大埔墟火車站經全面修復後，已改作其他用途。請問是以下哪一項用途呢？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三棟屋是位於荃灣的圍村，請問當地原居民是來自甚麼族群？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛堂門天后古廟（「古廟」）又稱「大廟」，位於佛堂門北岸，是本港歷史最悠久和規模最大的天后廟之一。請問此廟始建於甚麼時期？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大夫第位於元朗新田永平村建於1865年。請問名稱中的「大夫」是以下哪一個意思？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廖萬石堂位於上水門口村，是香港最具規模的祠堂之一。請問名稱中的「萬石」是以下哪一個意思？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美利樓位於赤柱佳美道，原為駐港英軍軍營和政府部門的辦事處，後來得以保育，請問它用了以下哪一種保育方式？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位於中環衛城道的甘棠第於1914年興建，以下哪一個是甘棠第現在的用途？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位於中環炮台里的前法國外方傳道會大樓於1917年興建，以下哪一個是它的著名舊用途？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>於2001年，香港政府決定保育西營盤社區綜合大樓請問它用了以下哪一種保育方式？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作為香港一級歷史建築的灣仔藍屋，其實原本並不是藍色的。在1990年代前，灣仔藍屋原為「灰屋」，請問為甚麼後來會變成藍色呢？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香港天文台位於尖沙咀，隨著附近之新大樓落成，天文台各部門已遷往新廈。不過，舊大樓仍保留一個用途，請問是以下哪一種用途？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2003年，政府推出發展前水警總部文物旅遊計劃，前水警總部建築群經私人發展商修復及活化後命名為「1881」。請問其落成年份為何年？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>district</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>question</t>
+  </si>
+  <si>
+    <t>answer</t>
+  </si>
+  <si>
+    <t>knowledge</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>sourceUrl</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>國際金融中心二期</t>
+  </si>
+  <si>
+    <t>中環中心</t>
+  </si>
+  <si>
+    <t>環球貿易廣場</t>
+  </si>
+  <si>
+    <t>中環廣場</t>
+  </si>
+  <si>
+    <t>灣仔區</t>
+  </si>
+  <si>
+    <t>中西區</t>
+  </si>
+  <si>
+    <t>油尖旺區</t>
+  </si>
+  <si>
+    <t>「青」：青龍頭；「馬」：馬鞍山</t>
+  </si>
+  <si>
+    <t>「青」：青衣；「馬」：馬灣</t>
+  </si>
+  <si>
+    <t>「青」：青龍頭；「馬」：馬灣</t>
+  </si>
+  <si>
+    <t>「青」：青衣；「馬」：馬鞍山</t>
+  </si>
+  <si>
+    <t>舊機場難以擴建</t>
+  </si>
+  <si>
+    <t>舊機場帶來噪音污染</t>
+  </si>
+  <si>
+    <t>新機場較為安全</t>
+  </si>
+  <si>
+    <t>新機場的建築成本很低</t>
+  </si>
+  <si>
+    <t>第一</t>
+  </si>
+  <si>
+    <t>第二</t>
+  </si>
+  <si>
+    <t>第三</t>
+  </si>
+  <si>
+    <t>第四</t>
+  </si>
+  <si>
+    <t>格仔餅</t>
+  </si>
+  <si>
+    <t>菠蘿包</t>
+  </si>
+  <si>
+    <t>蛋撻</t>
+  </si>
+  <si>
+    <t>旺角</t>
+  </si>
+  <si>
+    <t>銅鑼灣</t>
+  </si>
+  <si>
+    <t>灣仔</t>
+  </si>
+  <si>
+    <t>尖沙咀</t>
+  </si>
+  <si>
+    <t>元代</t>
+  </si>
+  <si>
+    <t>明代</t>
+  </si>
+  <si>
+    <t>清代</t>
+  </si>
+  <si>
+    <t>現代</t>
+  </si>
+  <si>
+    <t>香港文化中心</t>
+  </si>
+  <si>
+    <t>香港特別行政區政府總部</t>
+  </si>
+  <si>
+    <t>香港故宮文化博物館</t>
+  </si>
+  <si>
+    <t>香港會議展覽中心</t>
+  </si>
+  <si>
+    <t>港鐵九龍綫</t>
+  </si>
+  <si>
+    <t>九廣鐵路</t>
+  </si>
+  <si>
+    <t>機埸快綫</t>
+  </si>
+  <si>
+    <t>珠：珠海；澳：澳頭</t>
+  </si>
+  <si>
+    <t>珠：珠海；澳：澳門</t>
+  </si>
+  <si>
+    <t>道教</t>
+  </si>
+  <si>
+    <t>佛教</t>
+  </si>
+  <si>
+    <t>儒教</t>
+  </si>
+  <si>
+    <t>基督教</t>
+  </si>
+  <si>
+    <t>三教同尊</t>
+  </si>
+  <si>
+    <t>香港藝術館</t>
+  </si>
+  <si>
+    <t>香港歷史博物館</t>
+  </si>
+  <si>
+    <t>金鐘</t>
+  </si>
+  <si>
+    <t>中環</t>
+  </si>
+  <si>
+    <t>北角</t>
+  </si>
+  <si>
+    <t>1952年</t>
+  </si>
+  <si>
+    <t>1962年</t>
+  </si>
+  <si>
+    <t>古代繪畫及書法</t>
+  </si>
+  <si>
+    <t>香港島</t>
+  </si>
+  <si>
+    <t>九龍</t>
+  </si>
+  <si>
+    <t>新界</t>
+  </si>
+  <si>
+    <t>觀塘</t>
+  </si>
+  <si>
+    <t>九龍城</t>
+  </si>
+  <si>
+    <t>紅磡</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 音樂劇</t>
+  </si>
+  <si>
+    <t>中國戲曲</t>
+  </si>
+  <si>
+    <t>舞蹈</t>
+  </si>
+  <si>
+    <t>海事處總部</t>
+  </si>
+  <si>
+    <t>水警總部</t>
+  </si>
+  <si>
+    <t>教會</t>
+  </si>
+  <si>
+    <t>鐵路總站</t>
+  </si>
+  <si>
+    <t>邀山樓</t>
+  </si>
+  <si>
+    <t>廣蔭庭</t>
+  </si>
+  <si>
+    <t>衙門</t>
+  </si>
+  <si>
+    <t>屈臣氏藥房</t>
+  </si>
+  <si>
+    <t>九龍巴士</t>
+  </si>
+  <si>
+    <t>九龍倉庫</t>
+  </si>
+  <si>
+    <t>中華電力</t>
+  </si>
+  <si>
+    <t>深空觀測中心</t>
+  </si>
+  <si>
+    <t>颱風預報及雨量統計中心</t>
+  </si>
+  <si>
+    <t>政府翻新時物料庫只剩下水務署常用的藍色油漆</t>
+  </si>
+  <si>
+    <t>新業主希望營造地中海風情</t>
+  </si>
+  <si>
+    <t>藍色象徵水，有防火的寓意</t>
+  </si>
+  <si>
+    <t>藍色有助降溫</t>
+  </si>
+  <si>
+    <t>前中區警署</t>
+  </si>
+  <si>
+    <t>前中央裁判司署</t>
+  </si>
+  <si>
+    <t>前域多利監獄</t>
+  </si>
+  <si>
+    <t>前終審法院大樓</t>
+  </si>
+  <si>
+    <t>完整保存</t>
+  </si>
+  <si>
+    <t>選址重建</t>
+  </si>
+  <si>
+    <t>活化</t>
+  </si>
+  <si>
+    <t>保留部分建築</t>
+  </si>
+  <si>
+    <t>前商人會所</t>
+  </si>
+  <si>
+    <t>前終審法院</t>
+  </si>
+  <si>
+    <t>前軍營</t>
+  </si>
+  <si>
+    <t>茶具博物館</t>
+  </si>
+  <si>
+    <t>孫中山紀念館</t>
+  </si>
+  <si>
+    <t>餐廳</t>
+  </si>
+  <si>
+    <t>建築時用了萬多塊大石</t>
+  </si>
+  <si>
+    <t>與祖先為高官有關</t>
+  </si>
+  <si>
+    <t>取其平穩之意，希望生活平安</t>
+  </si>
+  <si>
+    <t>意指船底用作平衡船隻的石頭，紀念廖氏由漁業發跡</t>
+  </si>
+  <si>
+    <t>代表居住者的社會地位</t>
+  </si>
+  <si>
+    <t>代表居住者的職業為醫生，而醫生古稱大夫</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 「大夫」為居住者的名稱</t>
+  </si>
+  <si>
+    <t>宋</t>
+  </si>
+  <si>
+    <t>元</t>
+  </si>
+  <si>
+    <t>明</t>
+  </si>
+  <si>
+    <t>清</t>
+  </si>
+  <si>
+    <t>鶴佬人</t>
+  </si>
+  <si>
+    <t>蜑家人</t>
+  </si>
+  <si>
+    <t>客家人</t>
+  </si>
+  <si>
+    <t>博物館</t>
+  </si>
+  <si>
+    <t>商店</t>
+  </si>
+  <si>
+    <t>宋朝</t>
+  </si>
+  <si>
+    <t>元朝</t>
+  </si>
+  <si>
+    <t>明朝</t>
+  </si>
+  <si>
+    <t>清朝</t>
+  </si>
+  <si>
+    <t>戲院</t>
+  </si>
+  <si>
+    <t>書院</t>
+  </si>
+  <si>
+    <t>醫院</t>
+  </si>
+  <si>
+    <t>花園</t>
+  </si>
+  <si>
+    <t>糧倉</t>
+  </si>
+  <si>
+    <t>觀測氣象</t>
+  </si>
+  <si>
+    <t>報時</t>
+  </si>
+  <si>
+    <t>觀星</t>
+  </si>
+  <si>
+    <t>關羽</t>
+  </si>
+  <si>
+    <t>漢武帝</t>
+  </si>
+  <si>
+    <t>葉問</t>
+  </si>
+  <si>
+    <t>李小龍</t>
+  </si>
+  <si>
+    <t>Depositphotos_24874661_S.jpg</t>
+  </si>
+  <si>
+    <t>Depositphotos_483594438_S.jpg</t>
+  </si>
+  <si>
+    <t>Depositphotos_3545955_S.jpg</t>
+  </si>
+  <si>
+    <t>Depositphotos_167903126_S.jpg</t>
+  </si>
+  <si>
+    <t>Depositphotos_46890271_S.jpg</t>
+  </si>
+  <si>
+    <t>Depositphotos_182468906_S.jpg</t>
+  </si>
+  <si>
+    <t>Depositphotos_150087320_S.jpg</t>
+  </si>
+  <si>
+    <t>Depositphotos_588451274_S.jpg</t>
+  </si>
+  <si>
+    <t>Depositphotos_78446876_S.jpg</t>
+  </si>
+  <si>
+    <t>Depositphotos_243765230_S.jpg</t>
+  </si>
+  <si>
+    <t>Depositphotos_235354820_S.jpg</t>
+  </si>
+  <si>
+    <t>Depositphotos_109266734_S.jpg</t>
+  </si>
+  <si>
+    <t>Depositphotos_53294871_S.jpg</t>
+  </si>
+  <si>
+    <t>Depositphotos_538152308_S.jpg</t>
+  </si>
+  <si>
+    <t>Depositphotos_34914703_S.jpg</t>
+  </si>
+  <si>
+    <t>Depositphotos_726642688_S.jpg</t>
+  </si>
+  <si>
+    <t>Depositphotos_248958208_S.jpg</t>
+  </si>
+  <si>
+    <t>Depositphotos_63111601_S.jpg</t>
+  </si>
+  <si>
+    <t>香港中央圖書館位於銅鑼灣摩頓台，大樓中間有一座拱門設計，象徵「知識之門」隨時打開。中圖標誌由圓形、正方和三角組成，設計靈感源自中國「天圓地方」和「天人合一」的哲學。三個圖形分別代表天、地和知識的累積。</t>
+  </si>
+  <si>
+    <t>MoA_Outlook_blurred.jpg</t>
+  </si>
+  <si>
+    <t>new city hall.jpg</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>HKCL_01.jpg</t>
+  </si>
+  <si>
+    <t>香港文物探知館</t>
+  </si>
+  <si>
+    <t>珠：珠江；澳：大澳</t>
+  </si>
+  <si>
+    <t>奶黃包</t>
+  </si>
+  <si>
+    <t>廣深港高速鐵路</t>
+  </si>
+  <si>
+    <t>史前藝術</t>
+  </si>
+  <si>
+    <t>西式歌劇</t>
+  </si>
+  <si>
+    <t>東區</t>
+  </si>
+  <si>
+    <t>1972年</t>
+  </si>
+  <si>
+    <t>現代雕塑及裝置藝術</t>
+  </si>
+  <si>
+    <t>珠：珠江；澳：澳門</t>
+  </si>
+  <si>
+    <t>1982年</t>
+  </si>
+  <si>
+    <t>現代與當代視覺文化</t>
+  </si>
+  <si>
+    <t>大嶼山</t>
+  </si>
+  <si>
+    <t>圍頭人</t>
+  </si>
+  <si>
+    <t>魁星半亭</t>
+  </si>
+  <si>
+    <t>九龍氣象分析中心</t>
+  </si>
+  <si>
+    <t>辦公室</t>
+  </si>
+  <si>
+    <t>台長辦公室及行政中心</t>
+  </si>
+  <si>
+    <t>寓意人丁興旺</t>
+  </si>
+  <si>
+    <t>Clock Tower_AMO.png</t>
+  </si>
+  <si>
+    <t>KLC_AMO.png</t>
+  </si>
+  <si>
+    <t>Lui Seng Chun_AMO.png</t>
+  </si>
+  <si>
+    <t>HKO_AMO.png</t>
+  </si>
+  <si>
+    <t>1881_AMO.png</t>
+  </si>
+  <si>
+    <t>bluehouse_AMO.png</t>
+  </si>
+  <si>
+    <t>Tai Kwun_AMO.png</t>
+  </si>
+  <si>
+    <t>high street_AMO.png</t>
+  </si>
+  <si>
+    <t>Former French Mission Building1_AMO.png</t>
+  </si>
+  <si>
+    <t>Kom Tong Hall_AMO.png</t>
+  </si>
+  <si>
+    <t>Liu Man Shek Tong Ancestral Hall_AMO.png</t>
+  </si>
+  <si>
+    <t>Tai Fu Tai Mansion_AMO.png</t>
+  </si>
+  <si>
+    <t>Tin Hau Temple, Joss House Bay, Sai Kung_AMO.png</t>
+  </si>
+  <si>
+    <t>Sam Tung Uk Village_AMO.png</t>
+  </si>
+  <si>
+    <t>Old Tai Po Market Railway Station_AMO.png</t>
+  </si>
+  <si>
+    <t>Tung Chung Fort, Lantau Island_AMO.png</t>
+  </si>
+  <si>
+    <t>Tin Hau Temple and the adjoining buildings_AMO.png</t>
+  </si>
+  <si>
+    <t>Signal Tower at Blackhead Point_AMO.png</t>
+  </si>
+  <si>
+    <t>Man Mo Temple Compound_AMO.png</t>
+  </si>
+  <si>
+    <t>前九廣鐵路鐘樓以紅磚及花崗岩建造，具愛德華時代古典復興建築風格，樓高44米，樓頂裝有7米高的避雷針。鐘樓上部為八角形，有圓頂鐘塔，白色的古典裝飾如卷形扶壁、柱子及簷飾等，與紅磚形成強烈對比。&lt;br/&gt;
+&lt;br/&gt;
+隨着九廣鐵路總站於1975年遷往紅磡，尖沙咀的總站大樓於1978年拆卸，原址保存的鐘樓，成為見證香港鐵路早期歷史的重要標誌。&lt;br/&gt;
+&lt;br/&gt;
+前九廣鐵路鐘樓於1990年列為古蹟。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷生春是一幢四層高的唐樓，位處九龍旺角一幅三角形土地。雷生春建於1931年，由九龍巴士（一九三三）有限公司其中一名創辦人雷亮（1863年至1944年）擁有。雷氏家族在地舖經營藥店，並居於樓上各層。在雷亮於1944年辭世後幾年，藥店結業。2003年，雷氏家族將建築物贈予香港政府作保育之用，這是首次業主將歷史建築捐贈給政府。&lt;br/&gt;
+&lt;br/&gt;
+雷生春由建築師W. H. Bourne設計。建築物為新古典主義風格，帶裝飾藝術元素，有明顯的水平線條和大量古典元素，正立面採用弧形設計。&lt;br/&gt;
+&lt;br/&gt;
+在第一期活化歷史建築伙伴計劃下，香港浸會大學於2012年將雷生春活化為中醫藥保健中心，並一直營運。雷生春除了重新用作醫療相關設施以發揮原有功能外，其原有建築面貌及構件，包括花崗石柱、水磨石外牆、地磚和樓梯等均妥善保留。雷生春見證了一個備受尊重的家族的歷史，包括他們經營的藥店在第二次世界大戰前後的經濟活動。&lt;br/&gt;
+&lt;br/&gt;
+雷生春於2022年列為古蹟。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香港天文台建於1883年，坐落於九龍一小山丘上，並於1912年正式命名為皇家香港天文台。天文台具維多利亞殖民建築風格，樓高兩層，呈長方形，外牆經過粉飾，拱形窗和長廊別具特色。隨著附近之新大樓落成，天文台各技術及職務部門已遷往新廈。不過，舊大樓仍為台長辦公室及行政中心。隨著1997年7月1日香港主權回歸中國，復稱「香港天文台」。&lt;br/&gt;
+&lt;br/&gt;
+香港天文台於1984年列為古蹟。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前水警總部建成於1884年，為現存最古老的政府建築之一；整組建築群包括主樓、馬廄及報時塔（俗稱圓屋）。除日佔期間（1941至1945年）曾用作日本海軍基地外，至1996年為止，一直為水警所用。主樓本為一所兩層高建築，後於1920年代加建一層，主樓東南及西南兩翼為已婚職員宿舍。日佔期間於水警總部前草地下建有大規模地下通道。二次大戰後，為安全起見，封閉地下通道，及重鋪草地。報時塔可謂整座水警總部最具特色之建築，為海港船隻報時。其報時功能於1907年大包米的訊號塔落成啟用後而消失。&lt;br/&gt;
+&lt;br/&gt;
+2003年，政府推出發展前水警總部文物旅遊計劃，邀請私人發展商以招標形式去保存、修復和發展該歷史地段。此計劃於2009年完成，前水警總部建築群於修復及活化後名為「1881」。&lt;br/&gt;
+&lt;br/&gt;
+前水警總部於1994年列為古蹟。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>前中區警署是香港現存少數建於十九世紀的警署建築之一，在二戰前用作警察總部，負責香港的執法工作。該處在戰後曾用作港島總區總部及中區警署，於2004年12月正式關閉，以進行活化再利用。前中區警署、中央裁判司署及域多利監獄於2018年活化為「大館</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>─</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>古蹟及藝術館」，並對公眾開放。&lt;br/&gt;
+&lt;br/&gt;
+在該建築群中，最突出的建築物為營房大樓（1864年）和警察總部大樓（1919年）。營房大樓曾為200名單身警員及單身和已婚警長提供住宿，其設計以英國軍營為藍本，正面面向操場，採用新古典主義建築風格。大樓於1905年加建一層。室內的樓梯和地板以厚重的花崗石建成，別具特色。遊廊和高天花的通風柵格是因應香港的亞熱帶氣候而採用的建築設計。&lt;br/&gt;
+&lt;br/&gt;
+前中區警署、中央裁判司署和域多利監獄組成了一組標誌著香港法律及紀律的歷史建築群。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">位於中環炮台里的前法國外方傳道會大樓由法國外方傳道會於1917年興建，用作教會在香港的司帳處。1941年香港淪陷前，大樓曾一度被政府徵用。第二次世界大戰結束後，大樓旋即被用作臨時香港政府總部。法國傳道會與香港政府在1952年簽訂該大樓的買賣合約。自1953年起，大樓先後用作教育司署的辦事處、維多利亞地方法院、最高法院和政府新聞處的辦事處。由1997至2015年，大樓供香港終審法院使用。&lt;br/&gt;
+&lt;br/&gt;
+大樓以花崗石和紅磚建成，屬愛德華時期的新古典風格。大樓樓高三層，並設有地下室，西北隅建有一座圓頂小教堂
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘棠第於1914年興建，以第一任屋主何甘棠的名字命名。政府於2004年購得甘棠第，並將之改建為孫中山紀念館。該紀念館自2006年12月起開放給公眾參觀。&lt;br/&gt;
+&lt;br/&gt;
+甘棠第屬綜合古典風格的建築，這種風格在英皇愛德華時期的香港甚為流行。建築物的牆身由紅磚築砌，門窗四周飾有花崗石，露台建有精巧華麗的鐵製欄杆。甘棠第是本港最先以鋼架興建，並鋪設入牆電線的建築物之一。&lt;br/&gt;
+&lt;br/&gt;
+建築物內部富麗堂皇，糅合了巴洛克及洛可可風格的建築特色。地庫至二樓以寬闊華麗的樓梯連接，梯上設有精緻的扶欄。主要房間的天花均飾有以金箔點綴的灰塑鑲板，而主樓梯及其他當眼位置亦裝設了色彩斑斕的玻璃窗，並以當時流行的新藝術風格圖案作為裝飾。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廖萬石堂位於上水門口村，由廖族於1751年建成，是香港最具規模的祠堂之一。「萬石」之名與宋朝（960年 – 1279年）廖族遠祖廖剛及其4名兒子有關。相傳他們5人皆為高官，年享俸祿合共萬石，後人為紀念他們，遂將祖祠命名為「廖萬石堂」。&lt;br/&gt;
+&lt;br/&gt;
+廖萬石堂屬三進兩院式建築，建築裝飾華麗，灰塑、木刻、壁畫、泥塑等比目皆是，題材多為傳統吉祥圖案。&lt;br/&gt;
+&lt;br/&gt;
+廖萬石堂於1985年列為古蹟，建築物曾多次進行重修，最近一次於2016年完成。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大夫第建於清朝同治四年（1865年），是文頌鑾的府第。據文氏族譜所載，文氏的先祖源自四川，南宋（1127至1279年）時期遷徙至江西和廣東，十五世紀開始定居元朗新田。文頌鑾為文氏二十一世祖，獲賜封大夫銜。&lt;br/&gt;
+&lt;br/&gt;
+大夫第是傳統華南士紳階級府第建築的典範，也是本港最華麗的歷史建築物之一。大夫第主建築為兩進三開間布局，天井兩旁為廂房。主建築東西兩側各有面闊一開間的附屬建築物，東翼設有花廳和內院，西翼建築則以長廊相隔，設有廚房、偏廳和廁所。&lt;br/&gt;
+&lt;br/&gt;
+大夫第的全面修復工程在古物古蹟辦事處和建築署的監督下於1988年竣工。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三棟屋是典型的客家圍村，於1786年由陳姓客家人建立。陳氏家族於十八世紀中期從廣東移居本港，擇居荃灣，並且填平沿海的土地作耕種之用。三棟屋原先只有三列房舍，由族長陳任盛所建，他的後人先後在村的兩旁及後面加建房舍。位於中軸線上的正廳，擺放了陳氏先祖的神位，面向正門，正門石楣上刻有「陳氏家祠」四字。三棟屋於1987年全面復修，竣工後成為三棟屋博物館，開放予市民參觀。&lt;br/&gt;
+&lt;br/&gt;
+三棟屋村於1981年列為古蹟。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舊大埔墟火車站建成於1913年，其正面、屋頂及裝飾等均具中國建築特色，但火車站的內部則按火車站運作需要而設計。過往九廣鐵路沿線的其他火車站均為西式設計，唯獨大埔墟火車站是按照中國傳統建築風格建成。1983年新大埔墟火車站建成，代替原來的車站。舊大埔墟火車站經全面修復後，現用作香港鐵路博物館。&lt;br/&gt;
+&lt;br/&gt;
+舊大埔墟火車站於1984年列為古蹟。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>東涌炮台在清代稱為東涌所城，為大鵬右營的水師總部。炮台入口之花崗石額刻有道光十二年（1832年）字樣，當為建造年代。自新界在1898年租借給英國，清兵自炮台撤退後，炮台先用作警署，後用作華英中學校舍、東涌鄉事委員會及東涌公立學校。東涌公立學校於2003年停辦。&lt;br/&gt;
+&lt;br/&gt;
+東涌炮台於1979年列為古蹟。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位於油麻地的天后古廟及其鄰接建築物兼具祭祀、仲裁及教學等多種功能，對九龍區歷史意義重大。天后古廟由水陸居民興建，不但是當地社區重要的宗教場所，亦是當區集體文化身分的印記。天后古廟及其鄰接建築物是九龍區現存規模最大的天后廟建築群，亦見證油麻地地貌及文化的變遷。&lt;br/&gt;
+&lt;br/&gt;
+天后古廟是在該址首座建成的建築物，取代原先大概於1865年由當地居民興建的天后古廟。廟宇於1876年遷往現址，並於1878年建成。其他四座毗鄰廟宇的建築物，即公所、福德祠及兩所書院，其後於1894年至1920年間分階段落成。&lt;br/&gt;
+&lt;br/&gt;
+在五座建築物中，以天后古廟規模最大，裝潢最巧究。古廟正面飾有前簷廊，而簷廊兩邊各有一個鼓台。廟宇屬兩進三開間清代民間建築，兩進之間設有天井。鼓台的花崗石柱底座雕工精細。前進的正脊飾有造工精巧、歷史悠久的石灣陶塑。&lt;br/&gt;
+&lt;br/&gt;
+天后古廟及其鄰接建築物於2020年列為古蹟。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>訊號塔坐落於大包米訊號山花園，由香港天文台於1907年興建，以擺放原置於附近前水警總部圓屋內的時間球。香港有兩座專為向海員和市民準確報時而興建的建築物，訊號塔是其中之一。1908年1月8日，時間球於訊號塔恢復報時服務，其後於1933年6月30日終止。訊號塔現已成為訊號山花園的獨特標誌。&lt;br/&gt;
+&lt;br/&gt;
+訊號塔原高42呎，共三層，其後在1927年加建一層，使塔身高度增加約20呎，讓訊號塔不致被高樓遮蔽。訊號塔的建築帶有濃厚的古典巴洛克色彩，並加入當時流行的愛德華式裝飾特色，以紅磚配上淺色石構件。塔身呈方形，角位捨用常見的方角，採用雅致的斜削角。紅磚為特別燒製，並採用英式砌法，石作則以本地花崗石雕砌而成。其他建築特色包括花崗石基座、腰線和檐口，以及「吉布斯飾邊」的窗戶。&lt;br/&gt;
+&lt;br/&gt;
+大包米訊號塔於2015年列為古蹟。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文武廟為廟宇組群，位於上環荷李活道，由文武廟、列聖宮和公所三幢建築物組成。該廟宇由華人富商興建，估計於1847至1862年期間落成。文武廟主要為供奉文昌及武帝（關羽），列聖宮則用作供奉諸神列聖。公所為區內華人議事及排難解紛的場所。三幢建築物以兩條小巷分隔。&lt;br/&gt;
+&lt;br/&gt;
+文武廟對本港具有重要的歷史和社會意義，反映昔日香港華人的社會組織和宗教習俗。&lt;br/&gt;
+&lt;br/&gt;
+文武廟組群屬典型的傳統中式民間建築，飾有精緻的陶塑、花崗石雕刻、木雕、灰塑和壁畫，盡顯精湛的傳統工藝技術。&lt;br/&gt;
+&lt;br/&gt;
+文武廟於2010年列為古蹟。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>環球貿易廣場位於香港西九龍柯士甸道西1號，共118層，樓高484米，全香港最高的摩天大樓，世界排名12。&lt;br/&gt;
+&lt;br/&gt;
+國際金融中心二期位於香港島中環金融街8號，是港鐵機場快綫及東涌綫香港站上蓋，樓高415米，是目前香港第二高的摩天大樓，世界排名35。&lt;br/&gt;
+&lt;br/&gt;
+中環廣場位於灣仔北港灣道18號，於1992年建成時曾是亞洲及香港最高的建築物，樓高374米，目前為全香港第三高的摩天大樓。&lt;br/&gt;
+&lt;br/&gt;
+中環中心位於中環皇后大道中99號，樓高346米，樓高80層，是目前香港第五高的摩天大樓。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>來往香港和九龍的渡輪服務可追溯至1880年成立的「九龍渡海小輪公司」。1898年，天星小輪有限公司成立，收購了所有渡輪，並以其轄下船隻的名稱皆有「星」字而為公司命名。&lt;br/&gt;
+&lt;br/&gt;
+在過往百多年的歲月裏，綠白兩色的天星渡輪每天穿梭港島及九龍兩岸。乘客可從尖沙咀的天星碼頭(梳士巴利道尖沙咀渡輪碼頭)或中環碼頭（中環7號碼頭）、灣仔碼頭登船（會議道灣仔渡輪碼頭），沿途飽覽維港兩岸景色，一嚐這譽為「人生50個必到景點」的滋味。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -675,828 +1485,8 @@
         <charset val="136"/>
         <scheme val="minor"/>
       </rPr>
-      <t>大館</t>
+      <t>大館的建築物？</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>的建築物?</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文武廟為廟宇組群，位於上環荷李活道，文武廟主要供奉文昌及武帝，請問武帝即是哪一位歷史人物？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>訊號塔坐落於大包米訊號山花園，由香港天文台於1907年興建，請問它本來是以下哪一種用途？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>位於油麻地的天后古廟及其鄰接建築物兼具祭祀、仲裁及教學等多種功能，見證油麻地地貌及文化的變遷，請問建築群包括天后廟、公所、福德祠及以下哪一種建築？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>東涌炮台以前稱為東涌所城，為保護國家安全而設。請問東涌炮台在甚麼朝代建成呢？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1983年新大埔墟火車站建成，代替原來的車站。舊大埔墟火車站經全面修復後，已改作其他用途。請問是以下哪一項用途呢？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三棟屋是位於荃灣的圍村，請問當地原居民是來自甚麼族群？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佛堂門天后古廟（「古廟」）又稱「大廟」，位於佛堂門北岸，是本港歷史最悠久和規模最大的天后廟之一。請問此廟始建於甚麼時期？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大夫第位於元朗新田永平村建於1865年。請問名稱中的「大夫」是以下哪一個意思？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>廖萬石堂位於上水門口村，是香港最具規模的祠堂之一。請問名稱中的「萬石」是以下哪一個意思？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>美利樓位於赤柱佳美道，原為駐港英軍軍營和政府部門的辦事處，後來得以保育，請問它用了以下哪一種保育方式？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>位於中環衛城道的甘棠第於1914年興建，以下哪一個是甘棠第現在的用途？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>位於中環炮台里的前法國外方傳道會大樓於1917年興建，以下哪一個是它的著名舊用途？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>於2001年，香港政府決定保育西營盤社區綜合大樓請問它用了以下哪一種保育方式？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作為香港一級歷史建築的灣仔藍屋，其實原本並不是藍色的。在1990年代前，灣仔藍屋原為「灰屋」，請問為甚麼後來會變成藍色呢？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>香港天文台位於尖沙咀，隨著附近之新大樓落成，天文台各部門已遷往新廈。不過，舊大樓仍保留一個用途，請問是以下哪一種用途？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2003年，政府推出發展前水警總部文物旅遊計劃，前水警總部建築群經私人發展商修復及活化後命名為「1881」。請問其落成年份為何年？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>district</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>question</t>
-  </si>
-  <si>
-    <t>answer</t>
-  </si>
-  <si>
-    <t>knowledge</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>sourceUrl</t>
-  </si>
-  <si>
-    <t>image</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>國際金融中心二期</t>
-  </si>
-  <si>
-    <t>中環中心</t>
-  </si>
-  <si>
-    <t>環球貿易廣場</t>
-  </si>
-  <si>
-    <t>中環廣場</t>
-  </si>
-  <si>
-    <t>灣仔區</t>
-  </si>
-  <si>
-    <t>中西區</t>
-  </si>
-  <si>
-    <t>油尖旺區</t>
-  </si>
-  <si>
-    <t>「青」：青龍頭；「馬」：馬鞍山</t>
-  </si>
-  <si>
-    <t>「青」：青衣；「馬」：馬灣</t>
-  </si>
-  <si>
-    <t>「青」：青龍頭；「馬」：馬灣</t>
-  </si>
-  <si>
-    <t>「青」：青衣；「馬」：馬鞍山</t>
-  </si>
-  <si>
-    <t>舊機場難以擴建</t>
-  </si>
-  <si>
-    <t>舊機場帶來噪音污染</t>
-  </si>
-  <si>
-    <t>新機場較為安全</t>
-  </si>
-  <si>
-    <t>新機場的建築成本很低</t>
-  </si>
-  <si>
-    <t>第一</t>
-  </si>
-  <si>
-    <t>第二</t>
-  </si>
-  <si>
-    <t>第三</t>
-  </si>
-  <si>
-    <t>第四</t>
-  </si>
-  <si>
-    <t>格仔餅</t>
-  </si>
-  <si>
-    <t>菠蘿包</t>
-  </si>
-  <si>
-    <t>蛋撻</t>
-  </si>
-  <si>
-    <t>旺角</t>
-  </si>
-  <si>
-    <t>銅鑼灣</t>
-  </si>
-  <si>
-    <t>灣仔</t>
-  </si>
-  <si>
-    <t>尖沙咀</t>
-  </si>
-  <si>
-    <t>元代</t>
-  </si>
-  <si>
-    <t>明代</t>
-  </si>
-  <si>
-    <t>清代</t>
-  </si>
-  <si>
-    <t>現代</t>
-  </si>
-  <si>
-    <t>香港文化中心</t>
-  </si>
-  <si>
-    <t>香港特別行政區政府總部</t>
-  </si>
-  <si>
-    <t>香港故宮文化博物館</t>
-  </si>
-  <si>
-    <t>香港會議展覽中心</t>
-  </si>
-  <si>
-    <t>港鐵九龍綫</t>
-  </si>
-  <si>
-    <t>九廣鐵路</t>
-  </si>
-  <si>
-    <t>機埸快綫</t>
-  </si>
-  <si>
-    <t>珠：珠海；澳：澳頭</t>
-  </si>
-  <si>
-    <t>珠：珠海；澳：澳門</t>
-  </si>
-  <si>
-    <t>道教</t>
-  </si>
-  <si>
-    <t>佛教</t>
-  </si>
-  <si>
-    <t>儒教</t>
-  </si>
-  <si>
-    <t>基督教</t>
-  </si>
-  <si>
-    <t>三教同尊</t>
-  </si>
-  <si>
-    <t>香港藝術館</t>
-  </si>
-  <si>
-    <t>香港歷史博物館</t>
-  </si>
-  <si>
-    <t>金鐘</t>
-  </si>
-  <si>
-    <t>中環</t>
-  </si>
-  <si>
-    <t>北角</t>
-  </si>
-  <si>
-    <t>1952年</t>
-  </si>
-  <si>
-    <t>1962年</t>
-  </si>
-  <si>
-    <t>古代繪畫及書法</t>
-  </si>
-  <si>
-    <t>香港島</t>
-  </si>
-  <si>
-    <t>九龍</t>
-  </si>
-  <si>
-    <t>新界</t>
-  </si>
-  <si>
-    <t>觀塘</t>
-  </si>
-  <si>
-    <t>九龍城</t>
-  </si>
-  <si>
-    <t>紅磡</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 音樂劇</t>
-  </si>
-  <si>
-    <t>中國戲曲</t>
-  </si>
-  <si>
-    <t>舞蹈</t>
-  </si>
-  <si>
-    <t>海事處總部</t>
-  </si>
-  <si>
-    <t>水警總部</t>
-  </si>
-  <si>
-    <t>教會</t>
-  </si>
-  <si>
-    <t>鐵路總站</t>
-  </si>
-  <si>
-    <t>邀山樓</t>
-  </si>
-  <si>
-    <t>廣蔭庭</t>
-  </si>
-  <si>
-    <t>衙門</t>
-  </si>
-  <si>
-    <t>屈臣氏藥房</t>
-  </si>
-  <si>
-    <t>九龍巴士</t>
-  </si>
-  <si>
-    <t>九龍倉庫</t>
-  </si>
-  <si>
-    <t>中華電力</t>
-  </si>
-  <si>
-    <t>深空觀測中心</t>
-  </si>
-  <si>
-    <t>颱風預報及雨量統計中心</t>
-  </si>
-  <si>
-    <t>政府翻新時物料庫只剩下水務署常用的藍色油漆</t>
-  </si>
-  <si>
-    <t>新業主希望營造地中海風情</t>
-  </si>
-  <si>
-    <t>藍色象徵水，有防火的寓意</t>
-  </si>
-  <si>
-    <t>藍色有助降溫</t>
-  </si>
-  <si>
-    <t>前中區警署</t>
-  </si>
-  <si>
-    <t>前中央裁判司署</t>
-  </si>
-  <si>
-    <t>前域多利監獄</t>
-  </si>
-  <si>
-    <t>前終審法院大樓</t>
-  </si>
-  <si>
-    <t>完整保存</t>
-  </si>
-  <si>
-    <t>選址重建</t>
-  </si>
-  <si>
-    <t>活化</t>
-  </si>
-  <si>
-    <t>保留部分建築</t>
-  </si>
-  <si>
-    <t>前商人會所</t>
-  </si>
-  <si>
-    <t>前終審法院</t>
-  </si>
-  <si>
-    <t>前軍營</t>
-  </si>
-  <si>
-    <t>茶具博物館</t>
-  </si>
-  <si>
-    <t>孫中山紀念館</t>
-  </si>
-  <si>
-    <t>餐廳</t>
-  </si>
-  <si>
-    <t>建築時用了萬多塊大石</t>
-  </si>
-  <si>
-    <t>與祖先為高官有關</t>
-  </si>
-  <si>
-    <t>取其平穩之意，希望生活平安</t>
-  </si>
-  <si>
-    <t>意指船底用作平衡船隻的石頭，紀念廖氏由漁業發跡</t>
-  </si>
-  <si>
-    <t>代表居住者的社會地位</t>
-  </si>
-  <si>
-    <t>代表居住者的職業為醫生，而醫生古稱大夫</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 「大夫」為居住者的名稱</t>
-  </si>
-  <si>
-    <t>宋</t>
-  </si>
-  <si>
-    <t>元</t>
-  </si>
-  <si>
-    <t>明</t>
-  </si>
-  <si>
-    <t>清</t>
-  </si>
-  <si>
-    <t>鶴佬人</t>
-  </si>
-  <si>
-    <t>蜑家人</t>
-  </si>
-  <si>
-    <t>客家人</t>
-  </si>
-  <si>
-    <t>博物館</t>
-  </si>
-  <si>
-    <t>商店</t>
-  </si>
-  <si>
-    <t>宋朝</t>
-  </si>
-  <si>
-    <t>元朝</t>
-  </si>
-  <si>
-    <t>明朝</t>
-  </si>
-  <si>
-    <t>清朝</t>
-  </si>
-  <si>
-    <t>戲院</t>
-  </si>
-  <si>
-    <t>書院</t>
-  </si>
-  <si>
-    <t>醫院</t>
-  </si>
-  <si>
-    <t>花園</t>
-  </si>
-  <si>
-    <t>糧倉</t>
-  </si>
-  <si>
-    <t>觀測氣象</t>
-  </si>
-  <si>
-    <t>報時</t>
-  </si>
-  <si>
-    <t>觀星</t>
-  </si>
-  <si>
-    <t>關羽</t>
-  </si>
-  <si>
-    <t>漢武帝</t>
-  </si>
-  <si>
-    <t>葉問</t>
-  </si>
-  <si>
-    <t>李小龍</t>
-  </si>
-  <si>
-    <t>Depositphotos_24874661_S.jpg</t>
-  </si>
-  <si>
-    <t>Depositphotos_483594438_S.jpg</t>
-  </si>
-  <si>
-    <t>Depositphotos_3545955_S.jpg</t>
-  </si>
-  <si>
-    <t>Depositphotos_167903126_S.jpg</t>
-  </si>
-  <si>
-    <t>Depositphotos_46890271_S.jpg</t>
-  </si>
-  <si>
-    <t>Depositphotos_182468906_S.jpg</t>
-  </si>
-  <si>
-    <t>Depositphotos_150087320_S.jpg</t>
-  </si>
-  <si>
-    <t>Depositphotos_588451274_S.jpg</t>
-  </si>
-  <si>
-    <t>Depositphotos_78446876_S.jpg</t>
-  </si>
-  <si>
-    <t>Depositphotos_243765230_S.jpg</t>
-  </si>
-  <si>
-    <t>Depositphotos_235354820_S.jpg</t>
-  </si>
-  <si>
-    <t>Depositphotos_109266734_S.jpg</t>
-  </si>
-  <si>
-    <t>Depositphotos_53294871_S.jpg</t>
-  </si>
-  <si>
-    <t>Depositphotos_538152308_S.jpg</t>
-  </si>
-  <si>
-    <t>Depositphotos_34914703_S.jpg</t>
-  </si>
-  <si>
-    <t>Depositphotos_726642688_S.jpg</t>
-  </si>
-  <si>
-    <t>Depositphotos_248958208_S.jpg</t>
-  </si>
-  <si>
-    <t>Depositphotos_63111601_S.jpg</t>
-  </si>
-  <si>
-    <t>香港中央圖書館位於銅鑼灣摩頓台，大樓中間有一座拱門設計，象徵「知識之門」隨時打開。中圖標誌由圓形、正方和三角組成，設計靈感源自中國「天圓地方」和「天人合一」的哲學。三個圖形分別代表天、地和知識的累積。</t>
-  </si>
-  <si>
-    <t>MoA_Outlook_blurred.jpg</t>
-  </si>
-  <si>
-    <t>new city hall.jpg</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>HKCL_01.jpg</t>
-  </si>
-  <si>
-    <t>香港文物探知館</t>
-  </si>
-  <si>
-    <t>珠：珠江；澳：大澳</t>
-  </si>
-  <si>
-    <t>奶黃包</t>
-  </si>
-  <si>
-    <t>廣深港高速鐵路</t>
-  </si>
-  <si>
-    <t>史前藝術</t>
-  </si>
-  <si>
-    <t>西式歌劇</t>
-  </si>
-  <si>
-    <t>東區</t>
-  </si>
-  <si>
-    <t>1972年</t>
-  </si>
-  <si>
-    <t>現代雕塑及裝置藝術</t>
-  </si>
-  <si>
-    <t>珠：珠江；澳：澳門</t>
-  </si>
-  <si>
-    <t>1982年</t>
-  </si>
-  <si>
-    <t>現代與當代視覺文化</t>
-  </si>
-  <si>
-    <t>大嶼山</t>
-  </si>
-  <si>
-    <t>圍頭人</t>
-  </si>
-  <si>
-    <t>魁星半亭</t>
-  </si>
-  <si>
-    <t>九龍氣象分析中心</t>
-  </si>
-  <si>
-    <t>辦公室</t>
-  </si>
-  <si>
-    <t>台長辦公室及行政中心</t>
-  </si>
-  <si>
-    <t>寓意人丁興旺</t>
-  </si>
-  <si>
-    <t>Clock Tower_AMO.png</t>
-  </si>
-  <si>
-    <t>KLC_AMO.png</t>
-  </si>
-  <si>
-    <t>Lui Seng Chun_AMO.png</t>
-  </si>
-  <si>
-    <t>HKO_AMO.png</t>
-  </si>
-  <si>
-    <t>1881_AMO.png</t>
-  </si>
-  <si>
-    <t>bluehouse_AMO.png</t>
-  </si>
-  <si>
-    <t>Tai Kwun_AMO.png</t>
-  </si>
-  <si>
-    <t>high street_AMO.png</t>
-  </si>
-  <si>
-    <t>Former French Mission Building1_AMO.png</t>
-  </si>
-  <si>
-    <t>Kom Tong Hall_AMO.png</t>
-  </si>
-  <si>
-    <t>Liu Man Shek Tong Ancestral Hall_AMO.png</t>
-  </si>
-  <si>
-    <t>Tai Fu Tai Mansion_AMO.png</t>
-  </si>
-  <si>
-    <t>Tin Hau Temple, Joss House Bay, Sai Kung_AMO.png</t>
-  </si>
-  <si>
-    <t>Sam Tung Uk Village_AMO.png</t>
-  </si>
-  <si>
-    <t>Old Tai Po Market Railway Station_AMO.png</t>
-  </si>
-  <si>
-    <t>Tung Chung Fort, Lantau Island_AMO.png</t>
-  </si>
-  <si>
-    <t>Tin Hau Temple and the adjoining buildings_AMO.png</t>
-  </si>
-  <si>
-    <t>Signal Tower at Blackhead Point_AMO.png</t>
-  </si>
-  <si>
-    <t>Man Mo Temple Compound_AMO.png</t>
-  </si>
-  <si>
-    <t>前九廣鐵路鐘樓以紅磚及花崗岩建造，具愛德華時代古典復興建築風格，樓高44米，樓頂裝有7米高的避雷針。鐘樓上部為八角形，有圓頂鐘塔，白色的古典裝飾如卷形扶壁、柱子及簷飾等，與紅磚形成強烈對比。&lt;br/&gt;
-&lt;br/&gt;
-隨着九廣鐵路總站於1975年遷往紅磡，尖沙咀的總站大樓於1978年拆卸，原址保存的鐘樓，成為見證香港鐵路早期歷史的重要標誌。&lt;br/&gt;
-&lt;br/&gt;
-前九廣鐵路鐘樓於1990年列為古蹟。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷生春是一幢四層高的唐樓，位處九龍旺角一幅三角形土地。雷生春建於1931年，由九龍巴士（一九三三）有限公司其中一名創辦人雷亮（1863年至1944年）擁有。雷氏家族在地舖經營藥店，並居於樓上各層。在雷亮於1944年辭世後幾年，藥店結業。2003年，雷氏家族將建築物贈予香港政府作保育之用，這是首次業主將歷史建築捐贈給政府。&lt;br/&gt;
-&lt;br/&gt;
-雷生春由建築師W. H. Bourne設計。建築物為新古典主義風格，帶裝飾藝術元素，有明顯的水平線條和大量古典元素，正立面採用弧形設計。&lt;br/&gt;
-&lt;br/&gt;
-在第一期活化歷史建築伙伴計劃下，香港浸會大學於2012年將雷生春活化為中醫藥保健中心，並一直營運。雷生春除了重新用作醫療相關設施以發揮原有功能外，其原有建築面貌及構件，包括花崗石柱、水磨石外牆、地磚和樓梯等均妥善保留。雷生春見證了一個備受尊重的家族的歷史，包括他們經營的藥店在第二次世界大戰前後的經濟活動。&lt;br/&gt;
-&lt;br/&gt;
-雷生春於2022年列為古蹟。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>香港天文台建於1883年，坐落於九龍一小山丘上，並於1912年正式命名為皇家香港天文台。天文台具維多利亞殖民建築風格，樓高兩層，呈長方形，外牆經過粉飾，拱形窗和長廊別具特色。隨著附近之新大樓落成，天文台各技術及職務部門已遷往新廈。不過，舊大樓仍為台長辦公室及行政中心。隨著1997年7月1日香港主權回歸中國，復稱「香港天文台」。&lt;br/&gt;
-&lt;br/&gt;
-香港天文台於1984年列為古蹟。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前水警總部建成於1884年，為現存最古老的政府建築之一；整組建築群包括主樓、馬廄及報時塔（俗稱圓屋）。除日佔期間（1941至1945年）曾用作日本海軍基地外，至1996年為止，一直為水警所用。主樓本為一所兩層高建築，後於1920年代加建一層，主樓東南及西南兩翼為已婚職員宿舍。日佔期間於水警總部前草地下建有大規模地下通道。二次大戰後，為安全起見，封閉地下通道，及重鋪草地。報時塔可謂整座水警總部最具特色之建築，為海港船隻報時。其報時功能於1907年大包米的訊號塔落成啟用後而消失。&lt;br/&gt;
-&lt;br/&gt;
-2003年，政府推出發展前水警總部文物旅遊計劃，邀請私人發展商以招標形式去保存、修復和發展該歷史地段。此計劃於2009年完成，前水警總部建築群於修復及活化後名為「1881」。&lt;br/&gt;
-&lt;br/&gt;
-前水警總部於1994年列為古蹟。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>前中區警署是香港現存少數建於十九世紀的警署建築之一，在二戰前用作警察總部，負責香港的執法工作。該處在戰後曾用作港島總區總部及中區警署，於2004年12月正式關閉，以進行活化再利用。前中區警署、中央裁判司署及域多利監獄於2018年活化為「大館</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>─</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>古蹟及藝術館」，並對公眾開放。&lt;br/&gt;
-&lt;br/&gt;
-在該建築群中，最突出的建築物為營房大樓（1864年）和警察總部大樓（1919年）。營房大樓曾為200名單身警員及單身和已婚警長提供住宿，其設計以英國軍營為藍本，正面面向操場，採用新古典主義建築風格。大樓於1905年加建一層。室內的樓梯和地板以厚重的花崗石建成，別具特色。遊廊和高天花的通風柵格是因應香港的亞熱帶氣候而採用的建築設計。&lt;br/&gt;
-&lt;br/&gt;
-前中區警署、中央裁判司署和域多利監獄組成了一組標誌著香港法律及紀律的歷史建築群。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">位於中環炮台里的前法國外方傳道會大樓由法國外方傳道會於1917年興建，用作教會在香港的司帳處。1941年香港淪陷前，大樓曾一度被政府徵用。第二次世界大戰結束後，大樓旋即被用作臨時香港政府總部。法國傳道會與香港政府在1952年簽訂該大樓的買賣合約。自1953年起，大樓先後用作教育司署的辦事處、維多利亞地方法院、最高法院和政府新聞處的辦事處。由1997至2015年，大樓供香港終審法院使用。&lt;br/&gt;
-&lt;br/&gt;
-大樓以花崗石和紅磚建成，屬愛德華時期的新古典風格。大樓樓高三層，並設有地下室，西北隅建有一座圓頂小教堂
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>甘棠第於1914年興建，以第一任屋主何甘棠的名字命名。政府於2004年購得甘棠第，並將之改建為孫中山紀念館。該紀念館自2006年12月起開放給公眾參觀。&lt;br/&gt;
-&lt;br/&gt;
-甘棠第屬綜合古典風格的建築，這種風格在英皇愛德華時期的香港甚為流行。建築物的牆身由紅磚築砌，門窗四周飾有花崗石，露台建有精巧華麗的鐵製欄杆。甘棠第是本港最先以鋼架興建，並鋪設入牆電線的建築物之一。&lt;br/&gt;
-&lt;br/&gt;
-建築物內部富麗堂皇，糅合了巴洛克及洛可可風格的建築特色。地庫至二樓以寬闊華麗的樓梯連接，梯上設有精緻的扶欄。主要房間的天花均飾有以金箔點綴的灰塑鑲板，而主樓梯及其他當眼位置亦裝設了色彩斑斕的玻璃窗，並以當時流行的新藝術風格圖案作為裝飾。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>廖萬石堂位於上水門口村，由廖族於1751年建成，是香港最具規模的祠堂之一。「萬石」之名與宋朝（960年 – 1279年）廖族遠祖廖剛及其4名兒子有關。相傳他們5人皆為高官，年享俸祿合共萬石，後人為紀念他們，遂將祖祠命名為「廖萬石堂」。&lt;br/&gt;
-&lt;br/&gt;
-廖萬石堂屬三進兩院式建築，建築裝飾華麗，灰塑、木刻、壁畫、泥塑等比目皆是，題材多為傳統吉祥圖案。&lt;br/&gt;
-&lt;br/&gt;
-廖萬石堂於1985年列為古蹟，建築物曾多次進行重修，最近一次於2016年完成。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大夫第建於清朝同治四年（1865年），是文頌鑾的府第。據文氏族譜所載，文氏的先祖源自四川，南宋（1127至1279年）時期遷徙至江西和廣東，十五世紀開始定居元朗新田。文頌鑾為文氏二十一世祖，獲賜封大夫銜。&lt;br/&gt;
-&lt;br/&gt;
-大夫第是傳統華南士紳階級府第建築的典範，也是本港最華麗的歷史建築物之一。大夫第主建築為兩進三開間布局，天井兩旁為廂房。主建築東西兩側各有面闊一開間的附屬建築物，東翼設有花廳和內院，西翼建築則以長廊相隔，設有廚房、偏廳和廁所。&lt;br/&gt;
-&lt;br/&gt;
-大夫第的全面修復工程在古物古蹟辦事處和建築署的監督下於1988年竣工。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三棟屋是典型的客家圍村，於1786年由陳姓客家人建立。陳氏家族於十八世紀中期從廣東移居本港，擇居荃灣，並且填平沿海的土地作耕種之用。三棟屋原先只有三列房舍，由族長陳任盛所建，他的後人先後在村的兩旁及後面加建房舍。位於中軸線上的正廳，擺放了陳氏先祖的神位，面向正門，正門石楣上刻有「陳氏家祠」四字。三棟屋於1987年全面復修，竣工後成為三棟屋博物館，開放予市民參觀。&lt;br/&gt;
-&lt;br/&gt;
-三棟屋村於1981年列為古蹟。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>舊大埔墟火車站建成於1913年，其正面、屋頂及裝飾等均具中國建築特色，但火車站的內部則按火車站運作需要而設計。過往九廣鐵路沿線的其他火車站均為西式設計，唯獨大埔墟火車站是按照中國傳統建築風格建成。1983年新大埔墟火車站建成，代替原來的車站。舊大埔墟火車站經全面修復後，現用作香港鐵路博物館。&lt;br/&gt;
-&lt;br/&gt;
-舊大埔墟火車站於1984年列為古蹟。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>東涌炮台在清代稱為東涌所城，為大鵬右營的水師總部。炮台入口之花崗石額刻有道光十二年（1832年）字樣，當為建造年代。自新界在1898年租借給英國，清兵自炮台撤退後，炮台先用作警署，後用作華英中學校舍、東涌鄉事委員會及東涌公立學校。東涌公立學校於2003年停辦。&lt;br/&gt;
-&lt;br/&gt;
-東涌炮台於1979年列為古蹟。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>位於油麻地的天后古廟及其鄰接建築物兼具祭祀、仲裁及教學等多種功能，對九龍區歷史意義重大。天后古廟由水陸居民興建，不但是當地社區重要的宗教場所，亦是當區集體文化身分的印記。天后古廟及其鄰接建築物是九龍區現存規模最大的天后廟建築群，亦見證油麻地地貌及文化的變遷。&lt;br/&gt;
-&lt;br/&gt;
-天后古廟是在該址首座建成的建築物，取代原先大概於1865年由當地居民興建的天后古廟。廟宇於1876年遷往現址，並於1878年建成。其他四座毗鄰廟宇的建築物，即公所、福德祠及兩所書院，其後於1894年至1920年間分階段落成。&lt;br/&gt;
-&lt;br/&gt;
-在五座建築物中，以天后古廟規模最大，裝潢最巧究。古廟正面飾有前簷廊，而簷廊兩邊各有一個鼓台。廟宇屬兩進三開間清代民間建築，兩進之間設有天井。鼓台的花崗石柱底座雕工精細。前進的正脊飾有造工精巧、歷史悠久的石灣陶塑。&lt;br/&gt;
-&lt;br/&gt;
-天后古廟及其鄰接建築物於2020年列為古蹟。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>訊號塔坐落於大包米訊號山花園，由香港天文台於1907年興建，以擺放原置於附近前水警總部圓屋內的時間球。香港有兩座專為向海員和市民準確報時而興建的建築物，訊號塔是其中之一。1908年1月8日，時間球於訊號塔恢復報時服務，其後於1933年6月30日終止。訊號塔現已成為訊號山花園的獨特標誌。&lt;br/&gt;
-&lt;br/&gt;
-訊號塔原高42呎，共三層，其後在1927年加建一層，使塔身高度增加約20呎，讓訊號塔不致被高樓遮蔽。訊號塔的建築帶有濃厚的古典巴洛克色彩，並加入當時流行的愛德華式裝飾特色，以紅磚配上淺色石構件。塔身呈方形，角位捨用常見的方角，採用雅致的斜削角。紅磚為特別燒製，並採用英式砌法，石作則以本地花崗石雕砌而成。其他建築特色包括花崗石基座、腰線和檐口，以及「吉布斯飾邊」的窗戶。&lt;br/&gt;
-&lt;br/&gt;
-大包米訊號塔於2015年列為古蹟。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文武廟為廟宇組群，位於上環荷李活道，由文武廟、列聖宮和公所三幢建築物組成。該廟宇由華人富商興建，估計於1847至1862年期間落成。文武廟主要為供奉文昌及武帝（關羽），列聖宮則用作供奉諸神列聖。公所為區內華人議事及排難解紛的場所。三幢建築物以兩條小巷分隔。&lt;br/&gt;
-&lt;br/&gt;
-文武廟對本港具有重要的歷史和社會意義，反映昔日香港華人的社會組織和宗教習俗。&lt;br/&gt;
-&lt;br/&gt;
-文武廟組群屬典型的傳統中式民間建築，飾有精緻的陶塑、花崗石雕刻、木雕、灰塑和壁畫，盡顯精湛的傳統工藝技術。&lt;br/&gt;
-&lt;br/&gt;
-文武廟於2010年列為古蹟。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>環球貿易廣場位於香港西九龍柯士甸道西1號，共118層，樓高484米，全香港最高的摩天大樓，世界排名12。&lt;br/&gt;
-&lt;br/&gt;
-國際金融中心二期位於香港島中環金融街8號，是港鐵機場快綫及東涌綫香港站上蓋，樓高415米，是目前香港第二高的摩天大樓，世界排名35。&lt;br/&gt;
-&lt;br/&gt;
-中環廣場位於灣仔北港灣道18號，於1992年建成時曾是亞洲及香港最高的建築物，樓高374米，目前為全香港第三高的摩天大樓。&lt;br/&gt;
-&lt;br/&gt;
-中環中心位於中環皇后大道中99號，樓高346米，樓高80層，是目前香港第五高的摩天大樓。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>來往香港和九龍的渡輪服務可追溯至1880年成立的「九龍渡海小輪公司」。1898年，天星小輪有限公司成立，收購了所有渡輪，並以其轄下船隻的名稱皆有「星」字而為公司命名。&lt;br/&gt;
-&lt;br/&gt;
-在過往百多年的歲月裏，綠白兩色的天星渡輪每天穿梭港島及九龍兩岸。乘客可從尖沙咀的天星碼頭(梳士巴利道尖沙咀渡輪碼頭)或中環碼頭（中環7號碼頭）、灣仔碼頭登船（會議道灣仔渡輪碼頭），沿途飽覽維港兩岸景色，一嚐這譽為「人生50個必到景點」的滋味。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1678,9 +1668,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1718,7 +1708,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1824,7 +1814,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1966,7 +1956,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1977,16 +1967,16 @@
   <sheetPr codeName="工作表1"/>
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="D17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.149999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.796875" customWidth="1"/>
-    <col min="2" max="2" width="22.46484375" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
     <col min="3" max="3" width="42.6640625" style="1" customWidth="1"/>
-    <col min="4" max="7" width="34.1328125" customWidth="1"/>
+    <col min="4" max="7" width="34.1640625" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
     <col min="9" max="9" width="75.33203125" customWidth="1"/>
     <col min="10" max="10" width="15.6640625" customWidth="1"/>
@@ -1994,45 +1984,45 @@
     <col min="12" max="12" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" ht="16">
       <c r="A1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" t="s">
         <v>167</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H1" t="s">
         <v>169</v>
       </c>
-      <c r="D1" t="s">
-        <v>175</v>
-      </c>
-      <c r="E1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F1" t="s">
-        <v>177</v>
-      </c>
-      <c r="G1" t="s">
-        <v>178</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>170</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>171</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="L1" t="s">
         <v>173</v>
       </c>
-      <c r="L1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="177.4">
+    </row>
+    <row r="2" spans="1:12" ht="176">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2043,22 +2033,22 @@
         <v>132</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>182</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>45</v>
@@ -2067,10 +2057,10 @@
         <v>44</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="80.650000000000006">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="80">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2081,16 +2071,16 @@
         <v>135</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>332</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>185</v>
       </c>
       <c r="H3" t="s">
         <v>2</v>
@@ -2105,10 +2095,10 @@
         <v>74</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="64.5">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="64">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -2119,16 +2109,16 @@
         <v>123</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="H4" t="s">
         <v>10</v>
@@ -2143,10 +2133,10 @@
         <v>75</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="80.650000000000006">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="80">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -2157,16 +2147,16 @@
         <v>49</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="H5" t="s">
         <v>6</v>
@@ -2181,10 +2171,10 @@
         <v>77</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="96.75">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="96">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -2195,16 +2185,16 @@
         <v>124</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="H6" t="s">
         <v>65</v>
@@ -2219,10 +2209,10 @@
         <v>73</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="64.5">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="64">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -2233,16 +2223,16 @@
         <v>133</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>200</v>
       </c>
       <c r="H7" t="s">
         <v>55</v>
@@ -2257,10 +2247,10 @@
         <v>80</v>
       </c>
       <c r="L7" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="96.75">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="96">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -2271,16 +2261,16 @@
         <v>134</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>204</v>
       </c>
       <c r="H8" t="s">
         <v>52</v>
@@ -2295,10 +2285,10 @@
         <v>81</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="48.4">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="48">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -2309,19 +2299,19 @@
         <v>141</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="H9" s="13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>83</v>
@@ -2333,10 +2323,10 @@
         <v>84</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="161.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="144">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -2347,16 +2337,16 @@
         <v>136</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>212</v>
       </c>
       <c r="H10" t="s">
         <v>60</v>
@@ -2371,10 +2361,10 @@
         <v>88</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="80.650000000000006">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="80">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -2385,16 +2375,16 @@
         <v>138</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="H11" t="s">
         <v>65</v>
@@ -2409,10 +2399,10 @@
         <v>90</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="96.75">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="96">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -2423,16 +2413,16 @@
         <v>137</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>217</v>
-      </c>
       <c r="G12" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H12" t="s">
         <v>55</v>
@@ -2447,7 +2437,7 @@
         <v>93</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="105" customHeight="1">
@@ -2461,16 +2451,16 @@
         <v>139</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>221</v>
       </c>
       <c r="H13" t="s">
         <v>60</v>
@@ -2485,10 +2475,10 @@
         <v>96</v>
       </c>
       <c r="L13" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="64.5">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="64">
       <c r="A14" s="4" t="s">
         <v>21</v>
       </c>
@@ -2499,16 +2489,16 @@
         <v>140</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>52</v>
@@ -2523,10 +2513,10 @@
         <v>98</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="64.5">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="64">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -2537,16 +2527,16 @@
         <v>142</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="F15" s="14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H15" t="s">
         <v>65</v>
@@ -2561,10 +2551,10 @@
         <v>102</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="48.4">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="48">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -2575,22 +2565,22 @@
         <v>143</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>227</v>
       </c>
       <c r="H16" t="s">
         <v>55</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>105</v>
@@ -2599,10 +2589,10 @@
         <v>104</v>
       </c>
       <c r="L16" s="13" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="80.650000000000006">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="80">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -2613,16 +2603,16 @@
         <v>130</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>229</v>
-      </c>
       <c r="F17" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H17" t="s">
         <v>60</v>
@@ -2637,10 +2627,10 @@
         <v>107</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="64.5">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="64">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -2651,16 +2641,16 @@
         <v>129</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H18" t="s">
         <v>52</v>
@@ -2675,10 +2665,10 @@
         <v>112</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="48.4">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="48">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -2689,16 +2679,16 @@
         <v>128</v>
       </c>
       <c r="D19" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>233</v>
-      </c>
       <c r="G19" s="14" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H19" t="s">
         <v>65</v>
@@ -2713,10 +2703,10 @@
         <v>116</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="129">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="128">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -2727,22 +2717,22 @@
         <v>126</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E20" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>236</v>
       </c>
       <c r="H20" t="s">
         <v>65</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>72</v>
@@ -2751,10 +2741,10 @@
         <v>118</v>
       </c>
       <c r="L20" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="96.75">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="96">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -2765,16 +2755,16 @@
         <v>127</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="H21" t="s">
         <v>55</v>
@@ -2789,7 +2779,7 @@
         <v>121</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -3061,61 +3051,61 @@
   <sheetPr codeName="工作表2"/>
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView topLeftCell="D20" zoomScale="75" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="75" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.149999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="22.46484375" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
     <col min="3" max="3" width="42.6640625" style="1" customWidth="1"/>
-    <col min="4" max="7" width="34.1328125" customWidth="1"/>
+    <col min="4" max="7" width="34.1640625" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
     <col min="9" max="9" width="75.33203125" customWidth="1"/>
     <col min="10" max="10" width="15.6640625" customWidth="1"/>
     <col min="11" max="11" width="22.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" ht="16">
       <c r="A1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" t="s">
         <v>167</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H1" t="s">
         <v>169</v>
       </c>
-      <c r="D1" t="s">
-        <v>175</v>
-      </c>
-      <c r="E1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F1" t="s">
-        <v>177</v>
-      </c>
-      <c r="G1" t="s">
-        <v>178</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>170</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>171</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="L1" t="s">
         <v>173</v>
       </c>
-      <c r="L1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="129">
+    </row>
+    <row r="2" spans="1:12" ht="128">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -3126,22 +3116,22 @@
         <v>144</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>243</v>
       </c>
       <c r="H2" t="s">
         <v>6</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
@@ -3150,10 +3140,10 @@
         <v>66</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="112.9">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="112">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -3164,16 +3154,16 @@
         <v>145</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E3" s="14" t="s">
-        <v>340</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>246</v>
       </c>
       <c r="H3" t="s">
         <v>6</v>
@@ -3188,10 +3178,10 @@
         <v>25</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="258">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="256">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -3202,22 +3192,22 @@
         <v>147</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="H4" t="s">
         <v>10</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>7</v>
@@ -3226,10 +3216,10 @@
         <v>33</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="112.9">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="112">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -3237,25 +3227,25 @@
         <v>122</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>341</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>343</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>252</v>
       </c>
       <c r="H5" t="s">
         <v>14</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>7</v>
@@ -3264,10 +3254,10 @@
         <v>34</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="209.65">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="208">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -3275,7 +3265,7 @@
         <v>35</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D6" s="1">
         <v>1874</v>
@@ -3293,7 +3283,7 @@
         <v>10</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>7</v>
@@ -3302,10 +3292,10 @@
         <v>36</v>
       </c>
       <c r="L6" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="80.650000000000006">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="80">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -3313,19 +3303,19 @@
         <v>0</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>256</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>2</v>
@@ -3340,10 +3330,10 @@
         <v>16</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="209.65">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="211">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -3351,25 +3341,25 @@
         <v>5</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>150</v>
+        <v>380</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>259</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>260</v>
       </c>
       <c r="H8" t="s">
         <v>6</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>7</v>
@@ -3378,10 +3368,10 @@
         <v>15</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="112.9">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="96">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -3389,19 +3379,19 @@
         <v>11</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>264</v>
       </c>
       <c r="H9" t="s">
         <v>6</v>
@@ -3416,10 +3406,10 @@
         <v>12</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="161.25">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="144">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -3427,25 +3417,25 @@
         <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>267</v>
       </c>
       <c r="H10" t="s">
         <v>14</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>7</v>
@@ -3454,10 +3444,10 @@
         <v>68</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="193.5">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="176">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -3465,25 +3455,25 @@
         <v>19</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>270</v>
       </c>
       <c r="H11" t="s">
         <v>14</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>7</v>
@@ -3492,10 +3482,10 @@
         <v>69</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="96.75">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="96">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -3503,19 +3493,19 @@
         <v>22</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>264</v>
       </c>
       <c r="H12" t="s">
         <v>10</v>
@@ -3530,10 +3520,10 @@
         <v>23</v>
       </c>
       <c r="L12" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="145.15">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="128">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -3541,25 +3531,25 @@
         <v>8</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>274</v>
       </c>
       <c r="H13" t="s">
         <v>10</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>18</v>
@@ -3568,10 +3558,10 @@
         <v>17</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="161.25">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="160">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -3579,25 +3569,25 @@
         <v>27</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>344</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="H14" t="s">
         <v>2</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>7</v>
@@ -3606,10 +3596,10 @@
         <v>67</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="112.9">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="112">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -3617,19 +3607,19 @@
         <v>28</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>280</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>281</v>
       </c>
       <c r="H15" t="s">
         <v>2</v>
@@ -3644,10 +3634,10 @@
         <v>31</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="129">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="112">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -3655,25 +3645,25 @@
         <v>51</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>283</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>284</v>
       </c>
       <c r="H16" t="s">
         <v>52</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>7</v>
@@ -3682,10 +3672,10 @@
         <v>53</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="112.9">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="96">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -3693,25 +3683,25 @@
         <v>54</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F17" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>286</v>
       </c>
       <c r="H17" t="s">
         <v>55</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>7</v>
@@ -3720,10 +3710,10 @@
         <v>56</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="96.75">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="96">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -3731,25 +3721,25 @@
         <v>57</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E18" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="F18" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>290</v>
       </c>
       <c r="H18" t="s">
         <v>52</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>7</v>
@@ -3758,10 +3748,10 @@
         <v>58</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="241.9">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="224">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -3769,25 +3759,25 @@
         <v>59</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="H19" t="s">
         <v>60</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>7</v>
@@ -3796,10 +3786,10 @@
         <v>61</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="209.65">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="192">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -3807,25 +3797,25 @@
         <v>62</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>298</v>
       </c>
       <c r="H20" t="s">
         <v>55</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>7</v>
@@ -3834,10 +3824,10 @@
         <v>63</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="193.5">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="192">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -3845,25 +3835,25 @@
         <v>64</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>302</v>
       </c>
       <c r="H21" t="s">
         <v>65</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>7</v>
@@ -3872,7 +3862,7 @@
         <v>70</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="22" spans="1:12">
